--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="257">
   <si>
     <t>#</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>eft_explosion_003</t>
+  </si>
+  <si>
+    <t>eft_buff_link_001</t>
   </si>
   <si>
     <t>eft_skill_director_001</t>
@@ -1834,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6307,12 +6310,26 @@
       </c>
       <c r="H236" s="5"/>
     </row>
-    <row r="237" ht="17" customHeight="1" spans="3:8">
-      <c r="C237" s="2"/>
+    <row r="237" ht="17" customHeight="1" spans="1:8">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>15008032</v>
+      </c>
+      <c r="C237" t="s">
+        <v>226</v>
+      </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
+      <c r="E237" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G237" s="2">
+        <v>4</v>
+      </c>
       <c r="H237" s="5"/>
     </row>
     <row r="238" ht="17" customHeight="1" spans="3:8">
@@ -6323,48 +6340,20 @@
       <c r="G238" s="2"/>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" ht="17" customHeight="1" spans="1:8">
-      <c r="A239" t="s">
-        <v>0</v>
-      </c>
-      <c r="B239">
-        <v>15008101</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>226</v>
-      </c>
+    <row r="239" ht="17" customHeight="1" spans="3:8">
+      <c r="C239" s="2"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" s="2">
-        <v>4</v>
-      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
       <c r="H239" s="5"/>
     </row>
-    <row r="240" ht="17" customHeight="1" spans="1:8">
-      <c r="A240" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240">
-        <v>15008102</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>227</v>
-      </c>
+    <row r="240" ht="17" customHeight="1" spans="3:8">
+      <c r="C240" s="2"/>
       <c r="D240" s="2"/>
-      <c r="E240" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G240" s="2">
-        <v>4</v>
-      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
       <c r="H240" s="5"/>
     </row>
     <row r="241" ht="17" customHeight="1" spans="3:8">
@@ -6375,64 +6364,64 @@
       <c r="G241" s="2"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" ht="17" customHeight="1" spans="1:8">
-      <c r="A242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B242">
-        <v>15008201</v>
-      </c>
-      <c r="C242" s="2" t="s">
+    <row r="242" ht="17" customHeight="1" spans="3:8">
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" ht="17" customHeight="1" spans="3:8">
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" ht="17" customHeight="1" spans="1:8">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>15008101</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" s="2">
+        <v>4</v>
+      </c>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" ht="17" customHeight="1" spans="1:8">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>15008102</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2" t="s">
+      <c r="D245" s="2"/>
+      <c r="E245" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F245" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G242" s="2">
+      <c r="G245" s="2">
         <v>4</v>
       </c>
-      <c r="H242" s="5"/>
-    </row>
-    <row r="243" ht="17" customHeight="1" spans="1:8">
-      <c r="A243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243">
-        <v>15008202</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" s="2">
-        <v>4</v>
-      </c>
-      <c r="H243" s="5"/>
-    </row>
-    <row r="244" ht="17" customHeight="1" spans="3:8">
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="5"/>
-    </row>
-    <row r="245" ht="17" customHeight="1" spans="3:8">
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
       <c r="H245" s="5"/>
     </row>
     <row r="246" ht="17" customHeight="1" spans="3:8">
@@ -6443,20 +6432,48 @@
       <c r="G246" s="2"/>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" ht="17" customHeight="1" spans="3:8">
-      <c r="C247" s="2"/>
+    <row r="247" ht="17" customHeight="1" spans="1:8">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>15008201</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
+      <c r="E247" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G247" s="2">
+        <v>4</v>
+      </c>
       <c r="H247" s="5"/>
     </row>
-    <row r="248" ht="17" customHeight="1" spans="3:8">
-      <c r="C248" s="2"/>
+    <row r="248" ht="17" customHeight="1" spans="1:8">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>15008202</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
+      <c r="E248" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" s="2">
+        <v>4</v>
+      </c>
       <c r="H248" s="5"/>
     </row>
     <row r="249" ht="17" customHeight="1" spans="3:8">
@@ -6475,177 +6492,133 @@
       <c r="G250" s="2"/>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" ht="17" customHeight="1" spans="1:8">
-      <c r="A251" t="s">
-        <v>0</v>
-      </c>
-      <c r="B251">
+    <row r="251" ht="17" customHeight="1" spans="3:8">
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" ht="17" customHeight="1" spans="3:8">
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" ht="17" customHeight="1" spans="3:8">
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" ht="17" customHeight="1" spans="3:8">
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" ht="17" customHeight="1" spans="3:8">
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" ht="17" customHeight="1" spans="1:8">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256">
         <v>15010001</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="D256" s="2"/>
+      <c r="E256" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G251" s="2">
+      <c r="G256" s="2">
         <v>5</v>
       </c>
-      <c r="H251" s="5"/>
-    </row>
-    <row r="252" ht="17" customHeight="1" spans="1:8">
-      <c r="A252" t="s">
-        <v>0</v>
-      </c>
-      <c r="B252">
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" ht="17" customHeight="1" spans="1:8">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257">
         <v>15010002</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F252" s="2" t="s">
+      <c r="F257" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G252" s="2">
+      <c r="G257" s="2">
         <v>5</v>
       </c>
-      <c r="H252" s="5"/>
-    </row>
-    <row r="253" ht="17" customHeight="1" spans="1:8">
-      <c r="A253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253">
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" ht="17" customHeight="1" spans="1:8">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258">
         <v>15010003</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F253" s="2" t="s">
+      <c r="C258" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G253" s="2">
+      <c r="G258" s="2">
         <v>5</v>
       </c>
-      <c r="H253" s="5"/>
-    </row>
-    <row r="254" spans="8:8">
-      <c r="H254" s="5"/>
-    </row>
-    <row r="255" spans="8:8">
-      <c r="H255" s="5"/>
-    </row>
-    <row r="256" spans="8:8">
-      <c r="H256" s="5"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>0</v>
-      </c>
-      <c r="B257">
-        <v>15011001</v>
-      </c>
-      <c r="C257" t="s">
-        <v>234</v>
-      </c>
-      <c r="E257" t="s">
-        <v>235</v>
-      </c>
-      <c r="F257" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257">
-        <v>6</v>
-      </c>
-      <c r="H257" s="5"/>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B258">
-        <v>15011002</v>
-      </c>
-      <c r="C258" t="s">
-        <v>236</v>
-      </c>
-      <c r="E258" t="s">
-        <v>235</v>
-      </c>
-      <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258">
-        <v>6</v>
-      </c>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>0</v>
-      </c>
-      <c r="B259">
-        <v>15011003</v>
-      </c>
-      <c r="C259" t="s">
-        <v>237</v>
-      </c>
-      <c r="E259" t="s">
-        <v>235</v>
-      </c>
-      <c r="F259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259">
-        <v>6</v>
-      </c>
+    <row r="259" spans="8:8">
       <c r="H259" s="5"/>
     </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>0</v>
-      </c>
-      <c r="B260">
-        <v>15011004</v>
-      </c>
-      <c r="C260" t="s">
-        <v>238</v>
-      </c>
-      <c r="E260" t="s">
-        <v>235</v>
-      </c>
-      <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260">
-        <v>6</v>
-      </c>
+    <row r="260" spans="8:8">
       <c r="H260" s="5"/>
+    </row>
+    <row r="261" spans="8:8">
+      <c r="H261" s="5"/>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>0</v>
       </c>
       <c r="B262">
-        <v>15011021</v>
+        <v>15011001</v>
       </c>
       <c r="C262" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E262" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
@@ -6655,7 +6628,25 @@
       </c>
       <c r="H262" s="5"/>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>15011002</v>
+      </c>
+      <c r="C263" t="s">
+        <v>237</v>
+      </c>
+      <c r="E263" t="s">
+        <v>236</v>
+      </c>
+      <c r="F263" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263">
+        <v>6</v>
+      </c>
       <c r="H263" s="5"/>
     </row>
     <row r="264" spans="1:8">
@@ -6663,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="B264">
-        <v>15011030</v>
+        <v>15011003</v>
       </c>
       <c r="C264" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E264" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6684,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="B265">
-        <v>15011031</v>
+        <v>15011004</v>
       </c>
       <c r="C265" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E265" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6700,39 +6691,18 @@
       </c>
       <c r="H265" s="5"/>
     </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B266">
-        <v>15011032</v>
-      </c>
-      <c r="C266" t="s">
-        <v>243</v>
-      </c>
-      <c r="E266" t="s">
-        <v>241</v>
-      </c>
-      <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266">
-        <v>6</v>
-      </c>
-      <c r="H266" s="5"/>
-    </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>0</v>
       </c>
       <c r="B267">
-        <v>15011033</v>
+        <v>15011021</v>
       </c>
       <c r="C267" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E267" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
@@ -6742,34 +6712,70 @@
       </c>
       <c r="H267" s="5"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B268">
-        <v>15011034</v>
-      </c>
-      <c r="C268" t="s">
-        <v>245</v>
-      </c>
-      <c r="E268" t="s">
+    <row r="268" spans="8:8">
+      <c r="H268" s="5"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>15011030</v>
+      </c>
+      <c r="C269" t="s">
         <v>241</v>
       </c>
-      <c r="F268" t="s">
+      <c r="E269" t="s">
+        <v>242</v>
+      </c>
+      <c r="F269" t="s">
         <v>20</v>
       </c>
-      <c r="G268">
+      <c r="G269">
         <v>6</v>
       </c>
-      <c r="H268" s="5"/>
-    </row>
-    <row r="269" spans="8:8">
       <c r="H269" s="5"/>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>15011031</v>
+      </c>
+      <c r="C270" t="s">
+        <v>243</v>
+      </c>
+      <c r="E270" t="s">
+        <v>242</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="G270">
+        <v>6</v>
+      </c>
       <c r="H270" s="5"/>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>15011032</v>
+      </c>
+      <c r="C271" t="s">
+        <v>244</v>
+      </c>
+      <c r="E271" t="s">
+        <v>242</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271">
+        <v>6</v>
+      </c>
       <c r="H271" s="5"/>
     </row>
     <row r="272" spans="1:8">
@@ -6777,13 +6783,13 @@
         <v>0</v>
       </c>
       <c r="B272">
-        <v>15012001</v>
+        <v>15011033</v>
       </c>
       <c r="C272" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E272" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6793,104 +6799,155 @@
       </c>
       <c r="H272" s="5"/>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275">
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>15011034</v>
+      </c>
+      <c r="C273" t="s">
+        <v>246</v>
+      </c>
+      <c r="E273" t="s">
+        <v>242</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+      <c r="G273">
+        <v>6</v>
+      </c>
+      <c r="H273" s="5"/>
+    </row>
+    <row r="274" spans="8:8">
+      <c r="H274" s="5"/>
+    </row>
+    <row r="275" spans="8:8">
+      <c r="H275" s="5"/>
+    </row>
+    <row r="276" spans="8:8">
+      <c r="H276" s="5"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>15012001</v>
+      </c>
+      <c r="C277" t="s">
+        <v>247</v>
+      </c>
+      <c r="E277" t="s">
+        <v>242</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277">
+        <v>6</v>
+      </c>
+      <c r="H277" s="5"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280">
         <v>15013001</v>
       </c>
-      <c r="C275" t="s">
-        <v>247</v>
-      </c>
-      <c r="E275" t="s">
-        <v>241</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="C280" t="s">
+        <v>248</v>
+      </c>
+      <c r="E280" t="s">
+        <v>242</v>
+      </c>
+      <c r="F280" t="s">
         <v>20</v>
       </c>
-      <c r="G275">
+      <c r="G280">
         <v>6</v>
       </c>
-      <c r="H275" s="5"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278">
-        <v>15014001</v>
-      </c>
-      <c r="C278" t="s">
-        <v>248</v>
-      </c>
-      <c r="E278" t="s">
-        <v>249</v>
-      </c>
-      <c r="F278" t="s">
-        <v>250</v>
-      </c>
-      <c r="G278">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281">
-        <v>15015001</v>
-      </c>
-      <c r="C281" t="s">
-        <v>251</v>
-      </c>
-      <c r="E281" t="s">
-        <v>252</v>
-      </c>
-      <c r="F281" t="s">
-        <v>253</v>
-      </c>
-      <c r="G281">
-        <v>5</v>
-      </c>
+      <c r="H280" s="5"/>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>0</v>
       </c>
       <c r="B283">
+        <v>15014001</v>
+      </c>
+      <c r="C283" t="s">
+        <v>249</v>
+      </c>
+      <c r="E283" t="s">
+        <v>250</v>
+      </c>
+      <c r="F283" t="s">
+        <v>251</v>
+      </c>
+      <c r="G283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>15015001</v>
+      </c>
+      <c r="C286" t="s">
+        <v>252</v>
+      </c>
+      <c r="E286" t="s">
+        <v>253</v>
+      </c>
+      <c r="F286" t="s">
+        <v>254</v>
+      </c>
+      <c r="G286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288">
         <v>15015100</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C288" t="s">
+        <v>255</v>
+      </c>
+      <c r="E288" t="s">
+        <v>253</v>
+      </c>
+      <c r="F288" t="s">
         <v>254</v>
       </c>
-      <c r="E283" t="s">
-        <v>252</v>
-      </c>
-      <c r="F283" t="s">
+      <c r="G288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>15015101</v>
+      </c>
+      <c r="C289" t="s">
+        <v>256</v>
+      </c>
+      <c r="E289" t="s">
         <v>253</v>
       </c>
-      <c r="G283">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B284">
-        <v>15015101</v>
-      </c>
-      <c r="C284" t="s">
-        <v>255</v>
-      </c>
-      <c r="E284" t="s">
-        <v>252</v>
-      </c>
-      <c r="F284" t="s">
-        <v>253</v>
-      </c>
-      <c r="G284">
+      <c r="F289" t="s">
+        <v>254</v>
+      </c>
+      <c r="G289">
         <v>5</v>
       </c>
     </row>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="14415" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="258">
   <si>
     <t>#</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>SelectHeroUI</t>
+  </si>
+  <si>
+    <t>BattleReplaceHeroUI</t>
   </si>
   <si>
     <t>hero_100</t>
@@ -1839,8 +1842,8 @@
   <sheetPr/>
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2261,12 +2264,26 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="3:8">
-      <c r="C19" s="2"/>
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>15000501</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="3:8">
@@ -2293,14 +2310,14 @@
         <v>15001001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -2323,14 +2340,14 @@
         <v>15002001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -2385,14 +2402,14 @@
         <v>15003001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
@@ -2407,14 +2424,14 @@
         <v>15003002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -2429,14 +2446,14 @@
         <v>15003003</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2451,14 +2468,14 @@
         <v>15003004</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -2473,14 +2490,14 @@
         <v>15003005</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -2503,16 +2520,16 @@
         <v>15003101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -2527,14 +2544,14 @@
         <v>15003102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
@@ -2549,14 +2566,14 @@
         <v>15003103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2571,14 +2588,14 @@
         <v>15003104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -2593,14 +2610,14 @@
         <v>15003105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -2615,13 +2632,13 @@
         <v>15003106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
@@ -2635,14 +2652,14 @@
         <v>15003107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
@@ -2657,14 +2674,14 @@
         <v>15003108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -2679,14 +2696,14 @@
         <v>15003109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -2701,14 +2718,14 @@
         <v>15003110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2">
         <v>2</v>
@@ -2723,14 +2740,14 @@
         <v>15003111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -2745,14 +2762,14 @@
         <v>15003112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -2767,14 +2784,14 @@
         <v>15003113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -2789,14 +2806,14 @@
         <v>15003114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -2811,14 +2828,14 @@
         <v>15003115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2833,14 +2850,14 @@
         <v>15003116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -2855,14 +2872,14 @@
         <v>15003117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -2877,14 +2894,14 @@
         <v>15003118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -2899,14 +2916,14 @@
         <v>15003119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -2921,14 +2938,14 @@
         <v>15003120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -2943,14 +2960,14 @@
         <v>15003121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -2965,14 +2982,14 @@
         <v>15003122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -2987,14 +3004,14 @@
         <v>15003123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -3009,14 +3026,14 @@
         <v>15003124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -3031,14 +3048,14 @@
         <v>15003125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -3053,14 +3070,14 @@
         <v>15003126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -3091,16 +3108,16 @@
         <v>15003201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" s="2">
         <v>2</v>
@@ -3115,14 +3132,14 @@
         <v>15003202</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -3137,14 +3154,14 @@
         <v>15003203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3159,14 +3176,14 @@
         <v>15003204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
@@ -3181,14 +3198,14 @@
         <v>15003205</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -3203,14 +3220,14 @@
         <v>15003206</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -3225,14 +3242,14 @@
         <v>15003207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" s="2">
         <v>2</v>
@@ -3247,14 +3264,14 @@
         <v>15003208</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
@@ -3269,14 +3286,14 @@
         <v>15003209</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" s="2">
         <v>2</v>
@@ -3291,14 +3308,14 @@
         <v>15003210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" s="2">
         <v>2</v>
@@ -3313,14 +3330,14 @@
         <v>15003211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -3335,14 +3352,14 @@
         <v>15003212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" s="2">
         <v>2</v>
@@ -3357,14 +3374,14 @@
         <v>15003213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2">
         <v>2</v>
@@ -3379,14 +3396,14 @@
         <v>15003214</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -3401,14 +3418,14 @@
         <v>15003215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
@@ -3423,14 +3440,14 @@
         <v>15003216</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79" s="2">
         <v>2</v>
@@ -3445,14 +3462,14 @@
         <v>15003217</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" s="2">
         <v>2</v>
@@ -3467,14 +3484,14 @@
         <v>15003218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -3489,14 +3506,14 @@
         <v>15003219</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -3511,14 +3528,14 @@
         <v>15003220</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -3533,14 +3550,14 @@
         <v>15003221</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
@@ -3555,14 +3572,14 @@
         <v>15003222</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -3577,14 +3594,14 @@
         <v>15003223</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
@@ -3599,14 +3616,14 @@
         <v>15003224</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87" s="2">
         <v>2</v>
@@ -3621,14 +3638,14 @@
         <v>15003225</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88" s="2">
         <v>2</v>
@@ -3643,14 +3660,14 @@
         <v>15003226</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89" s="2">
         <v>2</v>
@@ -3665,14 +3682,14 @@
         <v>15003227</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" s="2">
         <v>2</v>
@@ -3687,14 +3704,14 @@
         <v>15003228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" s="2">
         <v>2</v>
@@ -3709,14 +3726,14 @@
         <v>15003229</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" s="2">
         <v>2</v>
@@ -3731,14 +3748,14 @@
         <v>15003230</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -3753,14 +3770,14 @@
         <v>15003231</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -3775,14 +3792,14 @@
         <v>15003232</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" s="2">
         <v>2</v>
@@ -3797,14 +3814,14 @@
         <v>15003233</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" s="2">
         <v>2</v>
@@ -3819,14 +3836,14 @@
         <v>15003234</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -3841,14 +3858,14 @@
         <v>15003235</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" s="2">
         <v>2</v>
@@ -3863,14 +3880,14 @@
         <v>15003236</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99" s="2">
         <v>2</v>
@@ -3885,14 +3902,14 @@
         <v>15003237</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" s="2">
         <v>2</v>
@@ -3907,14 +3924,14 @@
         <v>15003238</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" s="2">
         <v>2</v>
@@ -3929,14 +3946,14 @@
         <v>15003239</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102" s="2">
         <v>2</v>
@@ -3951,14 +3968,14 @@
         <v>15003240</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" s="2">
         <v>2</v>
@@ -3973,14 +3990,14 @@
         <v>15003241</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
@@ -3995,14 +4012,14 @@
         <v>15003242</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105" s="2">
         <v>2</v>
@@ -4017,14 +4034,14 @@
         <v>15003243</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" s="2">
         <v>2</v>
@@ -4039,14 +4056,14 @@
         <v>15003244</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" s="2">
         <v>2</v>
@@ -4061,14 +4078,14 @@
         <v>15003245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G108" s="2">
         <v>2</v>
@@ -4083,14 +4100,14 @@
         <v>15003246</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109" s="2">
         <v>2</v>
@@ -4105,14 +4122,14 @@
         <v>15003247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110" s="2">
         <v>2</v>
@@ -4127,14 +4144,14 @@
         <v>15003248</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" s="2">
         <v>2</v>
@@ -4149,14 +4166,14 @@
         <v>15003249</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
@@ -4171,14 +4188,14 @@
         <v>15003250</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" s="2">
         <v>2</v>
@@ -4193,14 +4210,14 @@
         <v>15003251</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" s="2">
         <v>2</v>
@@ -4215,14 +4232,14 @@
         <v>15003252</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" s="2">
         <v>2</v>
@@ -4237,14 +4254,14 @@
         <v>15003253</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" s="2">
         <v>2</v>
@@ -4259,14 +4276,14 @@
         <v>15003254</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" s="2">
         <v>2</v>
@@ -4281,14 +4298,14 @@
         <v>15003255</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" s="2">
         <v>2</v>
@@ -4303,14 +4320,14 @@
         <v>15003256</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" s="2">
         <v>2</v>
@@ -4325,14 +4342,14 @@
         <v>15003257</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" s="2">
         <v>2</v>
@@ -4347,14 +4364,14 @@
         <v>15003258</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" s="2">
         <v>2</v>
@@ -4369,14 +4386,14 @@
         <v>15003259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" s="2">
         <v>2</v>
@@ -4391,14 +4408,14 @@
         <v>15003260</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123" s="2">
         <v>2</v>
@@ -4413,14 +4430,14 @@
         <v>15003261</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" s="2">
         <v>2</v>
@@ -4531,16 +4548,16 @@
         <v>15003501</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G137" s="2">
         <v>2</v>
@@ -4555,16 +4572,16 @@
         <v>15003502</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" s="2">
         <v>2</v>
@@ -4579,16 +4596,16 @@
         <v>15003503</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" s="2">
         <v>2</v>
@@ -4603,16 +4620,16 @@
         <v>15003504</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" s="2">
         <v>2</v>
@@ -4627,16 +4644,16 @@
         <v>15003505</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141" s="2">
         <v>2</v>
@@ -4651,16 +4668,16 @@
         <v>15003506</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142" s="2">
         <v>2</v>
@@ -4675,16 +4692,16 @@
         <v>15003507</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143" s="2">
         <v>2</v>
@@ -4699,16 +4716,16 @@
         <v>15003508</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144" s="2">
         <v>2</v>
@@ -4723,16 +4740,16 @@
         <v>15003509</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145" s="2">
         <v>2</v>
@@ -4755,16 +4772,16 @@
         <v>15003601</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147" s="2">
         <v>2</v>
@@ -4779,16 +4796,16 @@
         <v>15003602</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" s="2">
         <v>2</v>
@@ -4803,16 +4820,16 @@
         <v>15003603</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" s="2">
         <v>2</v>
@@ -4827,16 +4844,16 @@
         <v>15003604</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" s="2">
         <v>2</v>
@@ -4979,16 +4996,16 @@
         <v>15003701</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167" s="2">
         <v>2</v>
@@ -5003,16 +5020,16 @@
         <v>15003702</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G168" s="2">
         <v>2</v>
@@ -5027,16 +5044,16 @@
         <v>15003703</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G169" s="2">
         <v>2</v>
@@ -5051,16 +5068,16 @@
         <v>15003704</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G170" s="2">
         <v>2</v>
@@ -5075,16 +5092,16 @@
         <v>15003705</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" s="2">
         <v>2</v>
@@ -5099,16 +5116,16 @@
         <v>15003706</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" s="2">
         <v>2</v>
@@ -5131,16 +5148,16 @@
         <v>15003751</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" s="2">
         <v>2</v>
@@ -5155,16 +5172,16 @@
         <v>15003752</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G175" s="2">
         <v>2</v>
@@ -5179,16 +5196,16 @@
         <v>15003753</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G176" s="2">
         <v>2</v>
@@ -5203,16 +5220,16 @@
         <v>15003754</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G177" s="2">
         <v>2</v>
@@ -5227,16 +5244,16 @@
         <v>15003755</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G178" s="2">
         <v>2</v>
@@ -5275,16 +5292,16 @@
         <v>15004001</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G182" s="2">
         <v>2</v>
@@ -5299,16 +5316,16 @@
         <v>15004002</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G183" s="2">
         <v>2</v>
@@ -5323,16 +5340,16 @@
         <v>15004003</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G184" s="2">
         <v>2</v>
@@ -5395,16 +5412,16 @@
         <v>15005000</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G191" s="2">
         <v>2</v>
@@ -5419,16 +5436,16 @@
         <v>15005001</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G192" s="2">
         <v>2</v>
@@ -5443,16 +5460,16 @@
         <v>15005002</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G193" s="2">
         <v>2</v>
@@ -5467,16 +5484,16 @@
         <v>15005003</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G194" s="2">
         <v>2</v>
@@ -5515,14 +5532,14 @@
         <v>15006001</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G198" s="2">
         <v>3</v>
@@ -5537,13 +5554,13 @@
         <v>15006002</v>
       </c>
       <c r="C199" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E199" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F199" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -5558,13 +5575,13 @@
         <v>15006003</v>
       </c>
       <c r="C200" t="s">
+        <v>191</v>
+      </c>
+      <c r="E200" t="s">
+        <v>189</v>
+      </c>
+      <c r="F200" t="s">
         <v>190</v>
-      </c>
-      <c r="E200" t="s">
-        <v>188</v>
-      </c>
-      <c r="F200" t="s">
-        <v>189</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -5579,13 +5596,13 @@
         <v>15006004</v>
       </c>
       <c r="C201" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F201" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -5632,11 +5649,11 @@
         <v>15008001</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>20</v>
@@ -5654,11 +5671,11 @@
         <v>15008002</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>20</v>
@@ -5676,11 +5693,11 @@
         <v>15008003</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>20</v>
@@ -5698,11 +5715,11 @@
         <v>15008004</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5720,11 +5737,11 @@
         <v>15008005</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -5742,11 +5759,11 @@
         <v>15008006</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5764,11 +5781,11 @@
         <v>15008007</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5786,11 +5803,11 @@
         <v>15008008</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5808,11 +5825,11 @@
         <v>15008009</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5830,11 +5847,11 @@
         <v>15008010</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5852,11 +5869,11 @@
         <v>15008011</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5874,11 +5891,11 @@
         <v>15008012</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5896,11 +5913,11 @@
         <v>15008013</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5918,11 +5935,11 @@
         <v>15008014</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5940,11 +5957,11 @@
         <v>15008015</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -5962,11 +5979,11 @@
         <v>15008016</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -5984,11 +6001,11 @@
         <v>15008017</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6006,11 +6023,11 @@
         <v>15008018</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6028,11 +6045,11 @@
         <v>15008019</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6050,11 +6067,11 @@
         <v>15008020</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6072,11 +6089,11 @@
         <v>15008021</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>20</v>
@@ -6094,11 +6111,11 @@
         <v>15008022</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>20</v>
@@ -6116,11 +6133,11 @@
         <v>15008023</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6138,11 +6155,11 @@
         <v>15008024</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6160,11 +6177,11 @@
         <v>15008025</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -6182,11 +6199,11 @@
         <v>15008026</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6204,13 +6221,13 @@
         <v>15008027</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6228,13 +6245,13 @@
         <v>15008028</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>20</v>
@@ -6252,11 +6269,11 @@
         <v>15008029</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -6274,11 +6291,11 @@
         <v>15008030</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -6296,11 +6313,11 @@
         <v>15008031</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>20</v>
@@ -6318,11 +6335,11 @@
         <v>15008032</v>
       </c>
       <c r="C237" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -6388,11 +6405,11 @@
         <v>15008101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>20</v>
@@ -6410,11 +6427,11 @@
         <v>15008102</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>20</v>
@@ -6440,11 +6457,11 @@
         <v>15008201</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>20</v>
@@ -6462,11 +6479,11 @@
         <v>15008202</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>20</v>
@@ -6540,11 +6557,11 @@
         <v>15010001</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>20</v>
@@ -6562,11 +6579,11 @@
         <v>15010002</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>20</v>
@@ -6584,11 +6601,11 @@
         <v>15010003</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>20</v>
@@ -6615,10 +6632,10 @@
         <v>15011001</v>
       </c>
       <c r="C262" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E262" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
@@ -6636,10 +6653,10 @@
         <v>15011002</v>
       </c>
       <c r="C263" t="s">
+        <v>238</v>
+      </c>
+      <c r="E263" t="s">
         <v>237</v>
-      </c>
-      <c r="E263" t="s">
-        <v>236</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
@@ -6657,10 +6674,10 @@
         <v>15011003</v>
       </c>
       <c r="C264" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E264" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6678,10 +6695,10 @@
         <v>15011004</v>
       </c>
       <c r="C265" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E265" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6699,10 +6716,10 @@
         <v>15011021</v>
       </c>
       <c r="C267" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E267" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
@@ -6723,10 +6740,10 @@
         <v>15011030</v>
       </c>
       <c r="C269" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E269" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F269" t="s">
         <v>20</v>
@@ -6744,10 +6761,10 @@
         <v>15011031</v>
       </c>
       <c r="C270" t="s">
+        <v>244</v>
+      </c>
+      <c r="E270" t="s">
         <v>243</v>
-      </c>
-      <c r="E270" t="s">
-        <v>242</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6765,10 +6782,10 @@
         <v>15011032</v>
       </c>
       <c r="C271" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E271" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6786,10 +6803,10 @@
         <v>15011033</v>
       </c>
       <c r="C272" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E272" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6807,10 +6824,10 @@
         <v>15011034</v>
       </c>
       <c r="C273" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E273" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -6837,10 +6854,10 @@
         <v>15012001</v>
       </c>
       <c r="C277" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E277" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -6858,10 +6875,10 @@
         <v>15013001</v>
       </c>
       <c r="C280" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E280" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -6879,13 +6896,13 @@
         <v>15014001</v>
       </c>
       <c r="C283" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E283" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F283" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G283">
         <v>7</v>
@@ -6899,13 +6916,13 @@
         <v>15015001</v>
       </c>
       <c r="C286" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E286" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F286" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G286">
         <v>5</v>
@@ -6919,13 +6936,13 @@
         <v>15015100</v>
       </c>
       <c r="C288" t="s">
+        <v>256</v>
+      </c>
+      <c r="E288" t="s">
+        <v>254</v>
+      </c>
+      <c r="F288" t="s">
         <v>255</v>
-      </c>
-      <c r="E288" t="s">
-        <v>253</v>
-      </c>
-      <c r="F288" t="s">
-        <v>254</v>
       </c>
       <c r="G288">
         <v>5</v>
@@ -6939,13 +6956,13 @@
         <v>15015101</v>
       </c>
       <c r="C289" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E289" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F289" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G289">
         <v>5</v>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="10395"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1842,8 +1842,8 @@
   <sheetPr/>
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -174,7 +161,7 @@
     <t>SelectHeroUI</t>
   </si>
   <si>
-    <t>BattleReplaceHeroUI</t>
+    <t>BattleReplaceSkillUI</t>
   </si>
   <si>
     <t>hero_100</t>
@@ -846,7 +833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1006,12 +993,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1842,11 +1829,11 @@
   <sheetPr/>
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="38.875" customWidth="1"/>
@@ -6985,7 +6972,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7002,7 +6989,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14720"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="259">
   <si>
     <t>#</t>
   </si>
@@ -162,6 +175,9 @@
   </si>
   <si>
     <t>BattleReplaceSkillUI</t>
+  </si>
+  <si>
+    <t>BattleReplaceHeroUI</t>
   </si>
   <si>
     <t>hero_100</t>
@@ -833,7 +849,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -993,12 +1009,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1830,10 +1846,10 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="38.875" customWidth="1"/>
@@ -2273,12 +2289,26 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="3:8">
-      <c r="C20" s="2"/>
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>15000502</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="3:8">
@@ -2297,14 +2327,14 @@
         <v>15001001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -2327,14 +2357,14 @@
         <v>15002001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -2389,14 +2419,14 @@
         <v>15003001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
@@ -2411,14 +2441,14 @@
         <v>15003002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -2433,14 +2463,14 @@
         <v>15003003</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2455,14 +2485,14 @@
         <v>15003004</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -2477,14 +2507,14 @@
         <v>15003005</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -2507,16 +2537,16 @@
         <v>15003101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -2531,14 +2561,14 @@
         <v>15003102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
@@ -2553,14 +2583,14 @@
         <v>15003103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2575,14 +2605,14 @@
         <v>15003104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -2597,14 +2627,14 @@
         <v>15003105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -2619,13 +2649,13 @@
         <v>15003106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
@@ -2639,14 +2669,14 @@
         <v>15003107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
@@ -2661,14 +2691,14 @@
         <v>15003108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -2683,14 +2713,14 @@
         <v>15003109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -2705,14 +2735,14 @@
         <v>15003110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45" s="2">
         <v>2</v>
@@ -2727,14 +2757,14 @@
         <v>15003111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -2749,14 +2779,14 @@
         <v>15003112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -2771,14 +2801,14 @@
         <v>15003113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -2793,14 +2823,14 @@
         <v>15003114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -2815,14 +2845,14 @@
         <v>15003115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2837,14 +2867,14 @@
         <v>15003116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -2859,14 +2889,14 @@
         <v>15003117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -2881,14 +2911,14 @@
         <v>15003118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -2903,14 +2933,14 @@
         <v>15003119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -2925,14 +2955,14 @@
         <v>15003120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -2947,14 +2977,14 @@
         <v>15003121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -2969,14 +2999,14 @@
         <v>15003122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -2991,14 +3021,14 @@
         <v>15003123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -3013,14 +3043,14 @@
         <v>15003124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -3035,14 +3065,14 @@
         <v>15003125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -3057,14 +3087,14 @@
         <v>15003126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -3095,16 +3125,16 @@
         <v>15003201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" s="2">
         <v>2</v>
@@ -3119,14 +3149,14 @@
         <v>15003202</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -3141,14 +3171,14 @@
         <v>15003203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3163,14 +3193,14 @@
         <v>15003204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
@@ -3185,14 +3215,14 @@
         <v>15003205</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -3207,14 +3237,14 @@
         <v>15003206</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -3229,14 +3259,14 @@
         <v>15003207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" s="2">
         <v>2</v>
@@ -3251,14 +3281,14 @@
         <v>15003208</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
@@ -3273,14 +3303,14 @@
         <v>15003209</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" s="2">
         <v>2</v>
@@ -3295,14 +3325,14 @@
         <v>15003210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" s="2">
         <v>2</v>
@@ -3317,14 +3347,14 @@
         <v>15003211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -3339,14 +3369,14 @@
         <v>15003212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" s="2">
         <v>2</v>
@@ -3361,14 +3391,14 @@
         <v>15003213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" s="2">
         <v>2</v>
@@ -3383,14 +3413,14 @@
         <v>15003214</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -3405,14 +3435,14 @@
         <v>15003215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
@@ -3427,14 +3457,14 @@
         <v>15003216</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" s="2">
         <v>2</v>
@@ -3449,14 +3479,14 @@
         <v>15003217</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" s="2">
         <v>2</v>
@@ -3471,14 +3501,14 @@
         <v>15003218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -3493,14 +3523,14 @@
         <v>15003219</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -3515,14 +3545,14 @@
         <v>15003220</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -3537,14 +3567,14 @@
         <v>15003221</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
@@ -3559,14 +3589,14 @@
         <v>15003222</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -3581,14 +3611,14 @@
         <v>15003223</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
@@ -3603,14 +3633,14 @@
         <v>15003224</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" s="2">
         <v>2</v>
@@ -3625,14 +3655,14 @@
         <v>15003225</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" s="2">
         <v>2</v>
@@ -3647,14 +3677,14 @@
         <v>15003226</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89" s="2">
         <v>2</v>
@@ -3669,14 +3699,14 @@
         <v>15003227</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" s="2">
         <v>2</v>
@@ -3691,14 +3721,14 @@
         <v>15003228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" s="2">
         <v>2</v>
@@ -3713,14 +3743,14 @@
         <v>15003229</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" s="2">
         <v>2</v>
@@ -3735,14 +3765,14 @@
         <v>15003230</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -3757,14 +3787,14 @@
         <v>15003231</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -3779,14 +3809,14 @@
         <v>15003232</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" s="2">
         <v>2</v>
@@ -3801,14 +3831,14 @@
         <v>15003233</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" s="2">
         <v>2</v>
@@ -3823,14 +3853,14 @@
         <v>15003234</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -3845,14 +3875,14 @@
         <v>15003235</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" s="2">
         <v>2</v>
@@ -3867,14 +3897,14 @@
         <v>15003236</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" s="2">
         <v>2</v>
@@ -3889,14 +3919,14 @@
         <v>15003237</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" s="2">
         <v>2</v>
@@ -3911,14 +3941,14 @@
         <v>15003238</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101" s="2">
         <v>2</v>
@@ -3933,14 +3963,14 @@
         <v>15003239</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G102" s="2">
         <v>2</v>
@@ -3955,14 +3985,14 @@
         <v>15003240</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" s="2">
         <v>2</v>
@@ -3977,14 +4007,14 @@
         <v>15003241</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
@@ -3999,14 +4029,14 @@
         <v>15003242</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G105" s="2">
         <v>2</v>
@@ -4021,14 +4051,14 @@
         <v>15003243</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106" s="2">
         <v>2</v>
@@ -4043,14 +4073,14 @@
         <v>15003244</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107" s="2">
         <v>2</v>
@@ -4065,14 +4095,14 @@
         <v>15003245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" s="2">
         <v>2</v>
@@ -4087,14 +4117,14 @@
         <v>15003246</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" s="2">
         <v>2</v>
@@ -4109,14 +4139,14 @@
         <v>15003247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G110" s="2">
         <v>2</v>
@@ -4131,14 +4161,14 @@
         <v>15003248</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" s="2">
         <v>2</v>
@@ -4153,14 +4183,14 @@
         <v>15003249</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
@@ -4175,14 +4205,14 @@
         <v>15003250</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" s="2">
         <v>2</v>
@@ -4197,14 +4227,14 @@
         <v>15003251</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G114" s="2">
         <v>2</v>
@@ -4219,14 +4249,14 @@
         <v>15003252</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" s="2">
         <v>2</v>
@@ -4241,14 +4271,14 @@
         <v>15003253</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116" s="2">
         <v>2</v>
@@ -4263,14 +4293,14 @@
         <v>15003254</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G117" s="2">
         <v>2</v>
@@ -4285,14 +4315,14 @@
         <v>15003255</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G118" s="2">
         <v>2</v>
@@ -4307,14 +4337,14 @@
         <v>15003256</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119" s="2">
         <v>2</v>
@@ -4329,14 +4359,14 @@
         <v>15003257</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120" s="2">
         <v>2</v>
@@ -4351,14 +4381,14 @@
         <v>15003258</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G121" s="2">
         <v>2</v>
@@ -4373,14 +4403,14 @@
         <v>15003259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" s="2">
         <v>2</v>
@@ -4395,14 +4425,14 @@
         <v>15003260</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" s="2">
         <v>2</v>
@@ -4417,14 +4447,14 @@
         <v>15003261</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124" s="2">
         <v>2</v>
@@ -4535,16 +4565,16 @@
         <v>15003501</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" s="2">
         <v>2</v>
@@ -4559,16 +4589,16 @@
         <v>15003502</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" s="2">
         <v>2</v>
@@ -4583,16 +4613,16 @@
         <v>15003503</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G139" s="2">
         <v>2</v>
@@ -4607,16 +4637,16 @@
         <v>15003504</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140" s="2">
         <v>2</v>
@@ -4631,16 +4661,16 @@
         <v>15003505</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" s="2">
         <v>2</v>
@@ -4655,16 +4685,16 @@
         <v>15003506</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142" s="2">
         <v>2</v>
@@ -4679,16 +4709,16 @@
         <v>15003507</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G143" s="2">
         <v>2</v>
@@ -4703,16 +4733,16 @@
         <v>15003508</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144" s="2">
         <v>2</v>
@@ -4727,16 +4757,16 @@
         <v>15003509</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145" s="2">
         <v>2</v>
@@ -4759,16 +4789,16 @@
         <v>15003601</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G147" s="2">
         <v>2</v>
@@ -4783,16 +4813,16 @@
         <v>15003602</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148" s="2">
         <v>2</v>
@@ -4807,16 +4837,16 @@
         <v>15003603</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149" s="2">
         <v>2</v>
@@ -4831,16 +4861,16 @@
         <v>15003604</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" s="2">
         <v>2</v>
@@ -4983,16 +5013,16 @@
         <v>15003701</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" s="2">
         <v>2</v>
@@ -5007,16 +5037,16 @@
         <v>15003702</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168" s="2">
         <v>2</v>
@@ -5031,16 +5061,16 @@
         <v>15003703</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G169" s="2">
         <v>2</v>
@@ -5055,16 +5085,16 @@
         <v>15003704</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G170" s="2">
         <v>2</v>
@@ -5079,16 +5109,16 @@
         <v>15003705</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" s="2">
         <v>2</v>
@@ -5103,16 +5133,16 @@
         <v>15003706</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G172" s="2">
         <v>2</v>
@@ -5135,16 +5165,16 @@
         <v>15003751</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G174" s="2">
         <v>2</v>
@@ -5159,16 +5189,16 @@
         <v>15003752</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G175" s="2">
         <v>2</v>
@@ -5183,16 +5213,16 @@
         <v>15003753</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G176" s="2">
         <v>2</v>
@@ -5207,16 +5237,16 @@
         <v>15003754</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G177" s="2">
         <v>2</v>
@@ -5231,16 +5261,16 @@
         <v>15003755</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178" s="2">
         <v>2</v>
@@ -5279,16 +5309,16 @@
         <v>15004001</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G182" s="2">
         <v>2</v>
@@ -5303,16 +5333,16 @@
         <v>15004002</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G183" s="2">
         <v>2</v>
@@ -5327,16 +5357,16 @@
         <v>15004003</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G184" s="2">
         <v>2</v>
@@ -5399,16 +5429,16 @@
         <v>15005000</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G191" s="2">
         <v>2</v>
@@ -5423,16 +5453,16 @@
         <v>15005001</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" s="2">
         <v>2</v>
@@ -5447,16 +5477,16 @@
         <v>15005002</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193" s="2">
         <v>2</v>
@@ -5471,16 +5501,16 @@
         <v>15005003</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" s="2">
         <v>2</v>
@@ -5519,14 +5549,14 @@
         <v>15006001</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G198" s="2">
         <v>3</v>
@@ -5541,13 +5571,13 @@
         <v>15006002</v>
       </c>
       <c r="C199" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E199" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F199" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -5562,13 +5592,13 @@
         <v>15006003</v>
       </c>
       <c r="C200" t="s">
+        <v>192</v>
+      </c>
+      <c r="E200" t="s">
+        <v>190</v>
+      </c>
+      <c r="F200" t="s">
         <v>191</v>
-      </c>
-      <c r="E200" t="s">
-        <v>189</v>
-      </c>
-      <c r="F200" t="s">
-        <v>190</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -5583,13 +5613,13 @@
         <v>15006004</v>
       </c>
       <c r="C201" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F201" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -5636,11 +5666,11 @@
         <v>15008001</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>20</v>
@@ -5658,11 +5688,11 @@
         <v>15008002</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>20</v>
@@ -5680,11 +5710,11 @@
         <v>15008003</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>20</v>
@@ -5702,11 +5732,11 @@
         <v>15008004</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5724,11 +5754,11 @@
         <v>15008005</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -5746,11 +5776,11 @@
         <v>15008006</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5768,11 +5798,11 @@
         <v>15008007</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5790,11 +5820,11 @@
         <v>15008008</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5812,11 +5842,11 @@
         <v>15008009</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5834,11 +5864,11 @@
         <v>15008010</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5856,11 +5886,11 @@
         <v>15008011</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5878,11 +5908,11 @@
         <v>15008012</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5900,11 +5930,11 @@
         <v>15008013</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5922,11 +5952,11 @@
         <v>15008014</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5944,11 +5974,11 @@
         <v>15008015</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -5966,11 +5996,11 @@
         <v>15008016</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -5988,11 +6018,11 @@
         <v>15008017</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6010,11 +6040,11 @@
         <v>15008018</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6032,11 +6062,11 @@
         <v>15008019</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6054,11 +6084,11 @@
         <v>15008020</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6076,11 +6106,11 @@
         <v>15008021</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>20</v>
@@ -6098,11 +6128,11 @@
         <v>15008022</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>20</v>
@@ -6120,11 +6150,11 @@
         <v>15008023</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6142,11 +6172,11 @@
         <v>15008024</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6164,11 +6194,11 @@
         <v>15008025</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -6186,11 +6216,11 @@
         <v>15008026</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6208,13 +6238,13 @@
         <v>15008027</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6232,13 +6262,13 @@
         <v>15008028</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>20</v>
@@ -6256,11 +6286,11 @@
         <v>15008029</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -6278,11 +6308,11 @@
         <v>15008030</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -6300,11 +6330,11 @@
         <v>15008031</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>20</v>
@@ -6322,11 +6352,11 @@
         <v>15008032</v>
       </c>
       <c r="C237" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -6392,11 +6422,11 @@
         <v>15008101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>20</v>
@@ -6414,11 +6444,11 @@
         <v>15008102</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>20</v>
@@ -6444,11 +6474,11 @@
         <v>15008201</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>20</v>
@@ -6466,11 +6496,11 @@
         <v>15008202</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>20</v>
@@ -6544,11 +6574,11 @@
         <v>15010001</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>20</v>
@@ -6566,11 +6596,11 @@
         <v>15010002</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>20</v>
@@ -6588,11 +6618,11 @@
         <v>15010003</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>20</v>
@@ -6619,10 +6649,10 @@
         <v>15011001</v>
       </c>
       <c r="C262" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E262" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
@@ -6640,10 +6670,10 @@
         <v>15011002</v>
       </c>
       <c r="C263" t="s">
+        <v>239</v>
+      </c>
+      <c r="E263" t="s">
         <v>238</v>
-      </c>
-      <c r="E263" t="s">
-        <v>237</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
@@ -6661,10 +6691,10 @@
         <v>15011003</v>
       </c>
       <c r="C264" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E264" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6682,10 +6712,10 @@
         <v>15011004</v>
       </c>
       <c r="C265" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E265" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6703,10 +6733,10 @@
         <v>15011021</v>
       </c>
       <c r="C267" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E267" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
@@ -6727,10 +6757,10 @@
         <v>15011030</v>
       </c>
       <c r="C269" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E269" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F269" t="s">
         <v>20</v>
@@ -6748,10 +6778,10 @@
         <v>15011031</v>
       </c>
       <c r="C270" t="s">
+        <v>245</v>
+      </c>
+      <c r="E270" t="s">
         <v>244</v>
-      </c>
-      <c r="E270" t="s">
-        <v>243</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6769,10 +6799,10 @@
         <v>15011032</v>
       </c>
       <c r="C271" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E271" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6790,10 +6820,10 @@
         <v>15011033</v>
       </c>
       <c r="C272" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E272" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6811,10 +6841,10 @@
         <v>15011034</v>
       </c>
       <c r="C273" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E273" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -6841,10 +6871,10 @@
         <v>15012001</v>
       </c>
       <c r="C277" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E277" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -6862,10 +6892,10 @@
         <v>15013001</v>
       </c>
       <c r="C280" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E280" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -6883,13 +6913,13 @@
         <v>15014001</v>
       </c>
       <c r="C283" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E283" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F283" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G283">
         <v>7</v>
@@ -6903,13 +6933,13 @@
         <v>15015001</v>
       </c>
       <c r="C286" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E286" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F286" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G286">
         <v>5</v>
@@ -6923,13 +6953,13 @@
         <v>15015100</v>
       </c>
       <c r="C288" t="s">
+        <v>257</v>
+      </c>
+      <c r="E288" t="s">
+        <v>255</v>
+      </c>
+      <c r="F288" t="s">
         <v>256</v>
-      </c>
-      <c r="E288" t="s">
-        <v>254</v>
-      </c>
-      <c r="F288" t="s">
-        <v>255</v>
       </c>
       <c r="G288">
         <v>5</v>
@@ -6943,13 +6973,13 @@
         <v>15015101</v>
       </c>
       <c r="C289" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E289" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F289" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G289">
         <v>5</v>
@@ -6972,7 +7002,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6989,7 +7019,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -1845,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="260">
   <si>
     <t>#</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>SelectHeroUI</t>
+  </si>
+  <si>
+    <t>BattleReviveUI</t>
   </si>
   <si>
     <t>BattleReplaceSkillUI</t>
@@ -1843,10 +1846,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2272,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>15000501</v>
+        <v>15000016</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>15000502</v>
+        <v>15000501</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2311,72 +2314,86 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="3:8">
-      <c r="C21" s="2"/>
+    <row r="21" ht="15" customHeight="1" spans="1:8">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>15000502</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:8">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="22" ht="15" customHeight="1" spans="3:8">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
         <v>15001001</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="3:8">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:8">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="24" ht="15" customHeight="1" spans="3:8">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
         <v>15002001</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="3:8">
-      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="3:8">
@@ -2411,26 +2428,12 @@
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:8">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>15003001</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="30" ht="15" customHeight="1" spans="3:8">
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8">
@@ -2438,17 +2441,17 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>15003002</v>
+        <v>15003001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -2460,17 +2463,17 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>15003003</v>
+        <v>15003002</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2482,17 +2485,17 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>15003004</v>
+        <v>15003003</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -2504,53 +2507,51 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>15003005</v>
+        <v>15003004</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="3:8">
-      <c r="C35" s="2"/>
+    <row r="35" ht="15" customHeight="1" spans="1:8">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>15003005</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:8">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>15003101</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
+    <row r="36" ht="15" customHeight="1" spans="3:8">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:8">
@@ -2558,17 +2559,19 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>15003102</v>
+        <v>15003101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
@@ -2580,17 +2583,17 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>15003103</v>
+        <v>15003102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2602,17 +2605,17 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>15003104</v>
+        <v>15003103</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -2624,81 +2627,81 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>15003105</v>
+        <v>15003104</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" ht="15" customHeight="1" spans="1:8">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>15003106</v>
+        <v>15003105</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="1:8">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
-        <v>15003107</v>
+        <v>15003106</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
       </c>
-      <c r="H42" s="5"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:8">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>15003108</v>
+        <v>15003107</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -2710,17 +2713,17 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>15003109</v>
+        <v>15003108</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -2732,17 +2735,17 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>15003110</v>
+        <v>15003109</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" s="2">
         <v>2</v>
@@ -2754,17 +2757,17 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>15003111</v>
+        <v>15003110</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -2776,17 +2779,17 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>15003112</v>
+        <v>15003111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -2798,17 +2801,17 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>15003113</v>
+        <v>15003112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -2820,17 +2823,17 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>15003114</v>
+        <v>15003113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -2842,17 +2845,17 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>15003115</v>
+        <v>15003114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2864,17 +2867,17 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>15003116</v>
+        <v>15003115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -2886,17 +2889,17 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>15003117</v>
+        <v>15003116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -2908,17 +2911,17 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>15003118</v>
+        <v>15003117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -2930,17 +2933,17 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>15003119</v>
+        <v>15003118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -2952,17 +2955,17 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>15003120</v>
+        <v>15003119</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -2974,17 +2977,17 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>15003121</v>
+        <v>15003120</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -2996,17 +2999,17 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>15003122</v>
+        <v>15003121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -3018,17 +3021,17 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>15003123</v>
+        <v>15003122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -3040,17 +3043,17 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>15003124</v>
+        <v>15003123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -3062,17 +3065,17 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>15003125</v>
+        <v>15003124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -3084,29 +3087,43 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>15003126</v>
+        <v>15003125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="3:8">
-      <c r="C62" s="2"/>
+    <row r="62" ht="15" customHeight="1" spans="1:8">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>15003126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" ht="15" customHeight="1" spans="3:8">
@@ -3117,28 +3134,12 @@
       <c r="G63" s="2"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:8">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>15003201</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="2">
-        <v>2</v>
-      </c>
+    <row r="64" ht="15" customHeight="1" spans="3:8">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:8">
@@ -3146,17 +3147,19 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>15003202</v>
+        <v>15003201</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -3168,17 +3171,17 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>15003203</v>
+        <v>15003202</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3190,17 +3193,17 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>15003204</v>
+        <v>15003203</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
@@ -3212,17 +3215,17 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>15003205</v>
+        <v>15003204</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -3234,17 +3237,17 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>15003206</v>
+        <v>15003205</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -3256,17 +3259,17 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>15003207</v>
+        <v>15003206</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" s="2">
         <v>2</v>
@@ -3278,17 +3281,17 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>15003208</v>
+        <v>15003207</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
@@ -3300,17 +3303,17 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>15003209</v>
+        <v>15003208</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G72" s="2">
         <v>2</v>
@@ -3322,17 +3325,17 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>15003210</v>
+        <v>15003209</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73" s="2">
         <v>2</v>
@@ -3344,17 +3347,17 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>15003211</v>
+        <v>15003210</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -3366,17 +3369,17 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>15003212</v>
+        <v>15003211</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75" s="2">
         <v>2</v>
@@ -3388,17 +3391,17 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>15003213</v>
+        <v>15003212</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76" s="2">
         <v>2</v>
@@ -3410,17 +3413,17 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>15003214</v>
+        <v>15003213</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -3432,17 +3435,17 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>15003215</v>
+        <v>15003214</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
@@ -3454,17 +3457,17 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>15003216</v>
+        <v>15003215</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79" s="2">
         <v>2</v>
@@ -3476,17 +3479,17 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>15003217</v>
+        <v>15003216</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" s="2">
         <v>2</v>
@@ -3498,17 +3501,17 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>15003218</v>
+        <v>15003217</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -3520,17 +3523,17 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>15003219</v>
+        <v>15003218</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -3542,17 +3545,17 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>15003220</v>
+        <v>15003219</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -3564,17 +3567,17 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>15003221</v>
+        <v>15003220</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
@@ -3586,17 +3589,17 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>15003222</v>
+        <v>15003221</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -3608,17 +3611,17 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>15003223</v>
+        <v>15003222</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
@@ -3630,17 +3633,17 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>15003224</v>
+        <v>15003223</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" s="2">
         <v>2</v>
@@ -3652,17 +3655,17 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>15003225</v>
+        <v>15003224</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88" s="2">
         <v>2</v>
@@ -3674,17 +3677,17 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>15003226</v>
+        <v>15003225</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" s="2">
         <v>2</v>
@@ -3696,17 +3699,17 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>15003227</v>
+        <v>15003226</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G90" s="2">
         <v>2</v>
@@ -3718,17 +3721,17 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>15003228</v>
+        <v>15003227</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91" s="2">
         <v>2</v>
@@ -3740,17 +3743,17 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>15003229</v>
+        <v>15003228</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" s="2">
         <v>2</v>
@@ -3762,17 +3765,17 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>15003230</v>
+        <v>15003229</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -3784,17 +3787,17 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>15003231</v>
+        <v>15003230</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -3806,17 +3809,17 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>15003232</v>
+        <v>15003231</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" s="2">
         <v>2</v>
@@ -3828,17 +3831,17 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>15003233</v>
+        <v>15003232</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96" s="2">
         <v>2</v>
@@ -3850,17 +3853,17 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15003234</v>
+        <v>15003233</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -3872,17 +3875,17 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>15003235</v>
+        <v>15003234</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" s="2">
         <v>2</v>
@@ -3894,17 +3897,17 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>15003236</v>
+        <v>15003235</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G99" s="2">
         <v>2</v>
@@ -3916,17 +3919,17 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>15003237</v>
+        <v>15003236</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100" s="2">
         <v>2</v>
@@ -3938,17 +3941,17 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>15003238</v>
+        <v>15003237</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101" s="2">
         <v>2</v>
@@ -3960,17 +3963,17 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>15003239</v>
+        <v>15003238</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" s="2">
         <v>2</v>
@@ -3982,17 +3985,17 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>15003240</v>
+        <v>15003239</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" s="2">
         <v>2</v>
@@ -4004,17 +4007,17 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>15003241</v>
+        <v>15003240</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
@@ -4026,17 +4029,17 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>15003242</v>
+        <v>15003241</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" s="2">
         <v>2</v>
@@ -4048,17 +4051,17 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>15003243</v>
+        <v>15003242</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" s="2">
         <v>2</v>
@@ -4070,17 +4073,17 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>15003244</v>
+        <v>15003243</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" s="2">
         <v>2</v>
@@ -4092,17 +4095,17 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>15003245</v>
+        <v>15003244</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" s="2">
         <v>2</v>
@@ -4114,17 +4117,17 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>15003246</v>
+        <v>15003245</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G109" s="2">
         <v>2</v>
@@ -4136,17 +4139,17 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>15003247</v>
+        <v>15003246</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110" s="2">
         <v>2</v>
@@ -4158,17 +4161,17 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <v>15003248</v>
+        <v>15003247</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G111" s="2">
         <v>2</v>
@@ -4180,17 +4183,17 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>15003249</v>
+        <v>15003248</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
@@ -4202,17 +4205,17 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>15003250</v>
+        <v>15003249</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113" s="2">
         <v>2</v>
@@ -4224,17 +4227,17 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>15003251</v>
+        <v>15003250</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114" s="2">
         <v>2</v>
@@ -4246,17 +4249,17 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>15003252</v>
+        <v>15003251</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115" s="2">
         <v>2</v>
@@ -4268,17 +4271,17 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>15003253</v>
+        <v>15003252</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" s="2">
         <v>2</v>
@@ -4290,17 +4293,17 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>15003254</v>
+        <v>15003253</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" s="2">
         <v>2</v>
@@ -4312,17 +4315,17 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>15003255</v>
+        <v>15003254</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118" s="2">
         <v>2</v>
@@ -4334,17 +4337,17 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>15003256</v>
+        <v>15003255</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119" s="2">
         <v>2</v>
@@ -4356,17 +4359,17 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>15003257</v>
+        <v>15003256</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" s="2">
         <v>2</v>
@@ -4378,17 +4381,17 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>15003258</v>
+        <v>15003257</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121" s="2">
         <v>2</v>
@@ -4400,17 +4403,17 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>15003259</v>
+        <v>15003258</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G122" s="2">
         <v>2</v>
@@ -4422,17 +4425,17 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <v>15003260</v>
+        <v>15003259</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G123" s="2">
         <v>2</v>
@@ -4444,29 +4447,43 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>15003261</v>
+        <v>15003260</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" s="2">
         <v>2</v>
       </c>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" ht="15" customHeight="1" spans="3:8">
-      <c r="C125" s="2"/>
+    <row r="125" ht="15" customHeight="1" spans="1:8">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>15003261</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="2">
+        <v>2</v>
+      </c>
       <c r="H125" s="5"/>
     </row>
     <row r="126" ht="15" customHeight="1" spans="3:8">
@@ -4557,28 +4574,12 @@
       <c r="G136" s="2"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" ht="15" customHeight="1" spans="1:8">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>15003501</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="2">
-        <v>2</v>
-      </c>
+    <row r="137" ht="15" customHeight="1" spans="3:8">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" ht="15" customHeight="1" spans="1:8">
@@ -4586,19 +4587,19 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>15003502</v>
+        <v>15003501</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G138" s="2">
         <v>2</v>
@@ -4610,19 +4611,19 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>15003503</v>
+        <v>15003502</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" s="2">
         <v>2</v>
@@ -4634,19 +4635,19 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>15003504</v>
+        <v>15003503</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140" s="2">
         <v>2</v>
@@ -4658,19 +4659,19 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>15003505</v>
+        <v>15003504</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" s="2">
         <v>2</v>
@@ -4682,19 +4683,19 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>15003506</v>
+        <v>15003505</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142" s="2">
         <v>2</v>
@@ -4706,19 +4707,19 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>15003507</v>
+        <v>15003506</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143" s="2">
         <v>2</v>
@@ -4730,19 +4731,19 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>15003508</v>
+        <v>15003507</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144" s="2">
         <v>2</v>
@@ -4754,55 +4755,55 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>15003509</v>
+        <v>15003508</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2</v>
+      </c>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" ht="15" customHeight="1" spans="1:8">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>15003509</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" s="2">
-        <v>2</v>
-      </c>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" ht="15" customHeight="1" spans="3:8">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
+      <c r="E146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" s="2">
+        <v>2</v>
+      </c>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" ht="15" customHeight="1" spans="1:8">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>15003601</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G147" s="2">
-        <v>2</v>
-      </c>
+    <row r="147" ht="15" customHeight="1" spans="3:8">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:8">
@@ -4810,19 +4811,19 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>15003602</v>
+        <v>15003601</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G148" s="2">
         <v>2</v>
@@ -4834,19 +4835,19 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>15003603</v>
+        <v>15003602</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149" s="2">
         <v>2</v>
@@ -4858,31 +4859,47 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>15003604</v>
+        <v>15003603</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" s="2">
+        <v>2</v>
+      </c>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" ht="15" customHeight="1" spans="1:8">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>15003604</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150" s="2">
-        <v>2</v>
-      </c>
-      <c r="H150" s="5"/>
-    </row>
-    <row r="151" ht="15" customHeight="1" spans="3:8">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
+      <c r="E151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" s="2">
+        <v>2</v>
+      </c>
       <c r="H151" s="5"/>
     </row>
     <row r="152" ht="15" customHeight="1" spans="3:8">
@@ -5005,28 +5022,12 @@
       <c r="G166" s="2"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" ht="15" customHeight="1" spans="1:8">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167">
-        <v>15003701</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G167" s="2">
-        <v>2</v>
-      </c>
+    <row r="167" ht="15" customHeight="1" spans="3:8">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" ht="15" customHeight="1" spans="1:8">
@@ -5034,19 +5035,19 @@
         <v>0</v>
       </c>
       <c r="B168">
-        <v>15003702</v>
+        <v>15003701</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168" s="2">
         <v>2</v>
@@ -5058,19 +5059,19 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>15003703</v>
+        <v>15003702</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G169" s="2">
         <v>2</v>
@@ -5082,19 +5083,19 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <v>15003704</v>
+        <v>15003703</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170" s="2">
         <v>2</v>
@@ -5106,19 +5107,19 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <v>15003705</v>
+        <v>15003704</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G171" s="2">
         <v>2</v>
@@ -5130,55 +5131,55 @@
         <v>0</v>
       </c>
       <c r="B172">
+        <v>15003705</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="2">
+        <v>2</v>
+      </c>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" ht="15" customHeight="1" spans="1:8">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173">
         <v>15003706</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G172" s="2">
-        <v>2</v>
-      </c>
-      <c r="H172" s="5"/>
-    </row>
-    <row r="173" ht="15" customHeight="1" spans="3:8">
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G173" s="2">
+        <v>2</v>
+      </c>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" ht="15" customHeight="1" spans="1:8">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174">
-        <v>15003751</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G174" s="2">
-        <v>2</v>
-      </c>
+    <row r="174" ht="15" customHeight="1" spans="3:8">
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="5"/>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:8">
@@ -5186,19 +5187,19 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" s="2">
         <v>2</v>
@@ -5210,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G176" s="2">
         <v>2</v>
@@ -5234,19 +5235,19 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <v>15003754</v>
+        <v>15003753</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177" s="2">
         <v>2</v>
@@ -5258,31 +5259,47 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <v>15003755</v>
+        <v>15003754</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" s="2">
+        <v>2</v>
+      </c>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" ht="15" customHeight="1" spans="1:8">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>15003755</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178" s="2">
-        <v>2</v>
-      </c>
-      <c r="H178" s="5"/>
-    </row>
-    <row r="179" ht="15" customHeight="1" spans="3:8">
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="E179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G179" s="2">
+        <v>2</v>
+      </c>
       <c r="H179" s="5"/>
     </row>
     <row r="180" ht="15" customHeight="1" spans="3:8">
@@ -5301,28 +5318,12 @@
       <c r="G181" s="2"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" ht="15" customHeight="1" spans="1:8">
-      <c r="A182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182">
-        <v>15004001</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" s="2">
-        <v>2</v>
-      </c>
+    <row r="182" ht="15" customHeight="1" spans="3:8">
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="5"/>
     </row>
     <row r="183" ht="15" customHeight="1" spans="1:8">
@@ -5330,19 +5331,19 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>15004002</v>
+        <v>15004001</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G183" s="2">
         <v>2</v>
@@ -5354,31 +5355,47 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <v>15004003</v>
+        <v>15004002</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" s="2">
+        <v>2</v>
+      </c>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" ht="15" customHeight="1" spans="1:8">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>15004003</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G184" s="2">
-        <v>2</v>
-      </c>
-      <c r="H184" s="5"/>
-    </row>
-    <row r="185" ht="15" customHeight="1" spans="3:8">
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" s="2">
+        <v>2</v>
+      </c>
       <c r="H185" s="5"/>
     </row>
     <row r="186" ht="15" customHeight="1" spans="3:8">
@@ -5421,28 +5438,12 @@
       <c r="G190" s="2"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" ht="15" customHeight="1" spans="1:8">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191">
-        <v>15005000</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G191" s="2">
-        <v>2</v>
-      </c>
+    <row r="191" ht="15" customHeight="1" spans="3:8">
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="5"/>
     </row>
     <row r="192" ht="15" customHeight="1" spans="1:8">
@@ -5450,19 +5451,19 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>15005001</v>
+        <v>15005000</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G192" s="2">
         <v>2</v>
@@ -5474,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="B193">
-        <v>15005002</v>
+        <v>15005001</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" s="2">
         <v>2</v>
@@ -5498,31 +5499,47 @@
         <v>0</v>
       </c>
       <c r="B194">
-        <v>15005003</v>
+        <v>15005002</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" s="2">
+        <v>2</v>
+      </c>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" ht="15" customHeight="1" spans="1:8">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>15005003</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G194" s="2">
-        <v>2</v>
-      </c>
-      <c r="H194" s="5"/>
-    </row>
-    <row r="195" ht="15" customHeight="1" spans="3:8">
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="2">
+        <v>2</v>
+      </c>
       <c r="H195" s="5"/>
     </row>
     <row r="196" ht="15" customHeight="1" spans="3:8">
@@ -5541,64 +5558,51 @@
       <c r="G197" s="2"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" ht="17" customHeight="1" spans="1:8">
-      <c r="A198" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198">
+    <row r="198" ht="15" customHeight="1" spans="3:8">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" ht="17" customHeight="1" spans="1:8">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
         <v>15006001</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="D199" s="2"/>
+      <c r="E199" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G198" s="2">
+      <c r="F199" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G199" s="2">
         <v>3</v>
       </c>
-      <c r="H198" s="5"/>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199">
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200">
         <v>15006002</v>
       </c>
-      <c r="C199" t="s">
-        <v>189</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="C200" t="s">
         <v>190</v>
       </c>
-      <c r="F199" t="s">
+      <c r="E200" t="s">
         <v>191</v>
       </c>
-      <c r="G199">
-        <v>3</v>
-      </c>
-      <c r="H199" s="5"/>
-    </row>
-    <row r="200" ht="17" customHeight="1" spans="1:8">
-      <c r="A200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200">
-        <v>15006003</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="F200" t="s">
         <v>192</v>
-      </c>
-      <c r="E200" t="s">
-        <v>190</v>
-      </c>
-      <c r="F200" t="s">
-        <v>191</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -5610,28 +5614,41 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>15006004</v>
+        <v>15006003</v>
       </c>
       <c r="C201" t="s">
         <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F201" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G201">
         <v>3</v>
       </c>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" ht="17" customHeight="1" spans="3:8">
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
+    <row r="202" ht="17" customHeight="1" spans="1:8">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>15006004</v>
+      </c>
+      <c r="C202" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" t="s">
+        <v>191</v>
+      </c>
+      <c r="F202" t="s">
+        <v>192</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
       <c r="H202" s="5"/>
     </row>
     <row r="203" ht="17" customHeight="1" spans="3:8">
@@ -5658,26 +5675,12 @@
       <c r="G205" s="2"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" ht="17" customHeight="1" spans="1:8">
-      <c r="A206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206">
-        <v>15008001</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>194</v>
-      </c>
+    <row r="206" ht="17" customHeight="1" spans="3:8">
+      <c r="C206" s="2"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" s="2">
-        <v>4</v>
-      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
       <c r="H206" s="5"/>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:8">
@@ -5685,14 +5688,14 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>15008002</v>
+        <v>15008001</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>20</v>
@@ -5707,14 +5710,14 @@
         <v>0</v>
       </c>
       <c r="B208">
-        <v>15008003</v>
+        <v>15008002</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>20</v>
@@ -5729,14 +5732,14 @@
         <v>0</v>
       </c>
       <c r="B209">
-        <v>15008004</v>
+        <v>15008003</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5751,14 +5754,14 @@
         <v>0</v>
       </c>
       <c r="B210">
-        <v>15008005</v>
+        <v>15008004</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -5773,14 +5776,14 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>15008006</v>
+        <v>15008005</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5795,14 +5798,14 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>15008007</v>
+        <v>15008006</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5817,14 +5820,14 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>15008008</v>
+        <v>15008007</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5839,14 +5842,14 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>15008009</v>
+        <v>15008008</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5861,14 +5864,14 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>15008010</v>
+        <v>15008009</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5883,14 +5886,14 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>15008011</v>
+        <v>15008010</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5905,14 +5908,14 @@
         <v>0</v>
       </c>
       <c r="B217">
-        <v>15008012</v>
+        <v>15008011</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5927,14 +5930,14 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>15008013</v>
+        <v>15008012</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5949,14 +5952,14 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>15008014</v>
+        <v>15008013</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5971,14 +5974,14 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>15008015</v>
+        <v>15008014</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -5993,14 +5996,14 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>15008016</v>
+        <v>15008015</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -6015,14 +6018,14 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>15008017</v>
+        <v>15008016</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6037,14 +6040,14 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>15008018</v>
+        <v>15008017</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6059,14 +6062,14 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>15008019</v>
+        <v>15008018</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6081,14 +6084,14 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>15008020</v>
+        <v>15008019</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6103,14 +6106,14 @@
         <v>0</v>
       </c>
       <c r="B226">
-        <v>15008021</v>
+        <v>15008020</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>20</v>
@@ -6125,14 +6128,14 @@
         <v>0</v>
       </c>
       <c r="B227">
-        <v>15008022</v>
+        <v>15008021</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>20</v>
@@ -6147,14 +6150,14 @@
         <v>0</v>
       </c>
       <c r="B228">
-        <v>15008023</v>
+        <v>15008022</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6169,14 +6172,14 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>15008024</v>
+        <v>15008023</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6191,14 +6194,14 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>15008025</v>
+        <v>15008024</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -6213,14 +6216,14 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>15008026</v>
+        <v>15008025</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6235,16 +6238,14 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>15008027</v>
+        <v>15008026</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6259,16 +6260,16 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>20</v>
@@ -6283,14 +6284,16 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>15008029</v>
+        <v>15008028</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -6305,14 +6308,14 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>15008030</v>
+        <v>15008029</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -6327,14 +6330,14 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>15008031</v>
+        <v>15008030</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>20</v>
@@ -6349,14 +6352,14 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>15008032</v>
-      </c>
-      <c r="C237" t="s">
+        <v>15008031</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -6366,12 +6369,26 @@
       </c>
       <c r="H237" s="5"/>
     </row>
-    <row r="238" ht="17" customHeight="1" spans="3:8">
-      <c r="C238" s="2"/>
+    <row r="238" ht="17" customHeight="1" spans="1:8">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>15008032</v>
+      </c>
+      <c r="C238" t="s">
+        <v>229</v>
+      </c>
       <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
+      <c r="E238" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G238" s="2">
+        <v>4</v>
+      </c>
       <c r="H238" s="5"/>
     </row>
     <row r="239" ht="17" customHeight="1" spans="3:8">
@@ -6414,26 +6431,12 @@
       <c r="G243" s="2"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" ht="17" customHeight="1" spans="1:8">
-      <c r="A244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B244">
-        <v>15008101</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>229</v>
-      </c>
+    <row r="244" ht="17" customHeight="1" spans="3:8">
+      <c r="C244" s="2"/>
       <c r="D244" s="2"/>
-      <c r="E244" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" s="2">
-        <v>4</v>
-      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
       <c r="H244" s="5"/>
     </row>
     <row r="245" ht="17" customHeight="1" spans="1:8">
@@ -6441,14 +6444,14 @@
         <v>0</v>
       </c>
       <c r="B245">
-        <v>15008102</v>
+        <v>15008101</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>20</v>
@@ -6458,34 +6461,34 @@
       </c>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" ht="17" customHeight="1" spans="3:8">
-      <c r="C246" s="2"/>
+    <row r="246" ht="17" customHeight="1" spans="1:8">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>15008102</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
+      <c r="E246" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G246" s="2">
+        <v>4</v>
+      </c>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" ht="17" customHeight="1" spans="1:8">
-      <c r="A247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B247">
-        <v>15008201</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>231</v>
-      </c>
+    <row r="247" ht="17" customHeight="1" spans="3:8">
+      <c r="C247" s="2"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" s="2">
-        <v>4</v>
-      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
       <c r="H247" s="5"/>
     </row>
     <row r="248" ht="17" customHeight="1" spans="1:8">
@@ -6493,14 +6496,14 @@
         <v>0</v>
       </c>
       <c r="B248">
-        <v>15008202</v>
+        <v>15008201</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>20</v>
@@ -6510,12 +6513,26 @@
       </c>
       <c r="H248" s="5"/>
     </row>
-    <row r="249" ht="17" customHeight="1" spans="3:8">
-      <c r="C249" s="2"/>
+    <row r="249" ht="17" customHeight="1" spans="1:8">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>15008202</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
+      <c r="E249" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" s="2">
+        <v>4</v>
+      </c>
       <c r="H249" s="5"/>
     </row>
     <row r="250" ht="17" customHeight="1" spans="3:8">
@@ -6566,26 +6583,12 @@
       <c r="G255" s="2"/>
       <c r="H255" s="5"/>
     </row>
-    <row r="256" ht="17" customHeight="1" spans="1:8">
-      <c r="A256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B256">
-        <v>15010001</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>233</v>
-      </c>
+    <row r="256" ht="17" customHeight="1" spans="3:8">
+      <c r="C256" s="2"/>
       <c r="D256" s="2"/>
-      <c r="E256" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" s="2">
-        <v>5</v>
-      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
       <c r="H256" s="5"/>
     </row>
     <row r="257" ht="17" customHeight="1" spans="1:8">
@@ -6593,14 +6596,14 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>15010002</v>
+        <v>15010001</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>20</v>
@@ -6615,14 +6618,14 @@
         <v>0</v>
       </c>
       <c r="B258">
-        <v>15010003</v>
+        <v>15010002</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>20</v>
@@ -6632,7 +6635,26 @@
       </c>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" ht="17" customHeight="1" spans="1:8">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>15010003</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259" s="2">
+        <v>5</v>
+      </c>
       <c r="H259" s="5"/>
     </row>
     <row r="260" spans="8:8">
@@ -6641,25 +6663,7 @@
     <row r="261" spans="8:8">
       <c r="H261" s="5"/>
     </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262">
-        <v>15011001</v>
-      </c>
-      <c r="C262" t="s">
-        <v>237</v>
-      </c>
-      <c r="E262" t="s">
-        <v>238</v>
-      </c>
-      <c r="F262" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262">
-        <v>6</v>
-      </c>
+    <row r="262" spans="8:8">
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8">
@@ -6667,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="B263">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="C263" t="s">
+        <v>238</v>
+      </c>
+      <c r="E263" t="s">
         <v>239</v>
-      </c>
-      <c r="E263" t="s">
-        <v>238</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
@@ -6688,13 +6692,13 @@
         <v>0</v>
       </c>
       <c r="B264">
-        <v>15011003</v>
+        <v>15011002</v>
       </c>
       <c r="C264" t="s">
         <v>240</v>
       </c>
       <c r="E264" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6709,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="B265">
-        <v>15011004</v>
+        <v>15011003</v>
       </c>
       <c r="C265" t="s">
         <v>241</v>
       </c>
       <c r="E265" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6725,49 +6729,49 @@
       </c>
       <c r="H265" s="5"/>
     </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B267">
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>15011004</v>
+      </c>
+      <c r="C266" t="s">
+        <v>242</v>
+      </c>
+      <c r="E266" t="s">
+        <v>239</v>
+      </c>
+      <c r="F266" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266">
+        <v>6</v>
+      </c>
+      <c r="H266" s="5"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268">
         <v>15011021</v>
       </c>
-      <c r="C267" t="s">
-        <v>242</v>
-      </c>
-      <c r="E267" t="s">
-        <v>238</v>
-      </c>
-      <c r="F267" t="s">
+      <c r="C268" t="s">
+        <v>243</v>
+      </c>
+      <c r="E268" t="s">
+        <v>239</v>
+      </c>
+      <c r="F268" t="s">
         <v>20</v>
       </c>
-      <c r="G267">
+      <c r="G268">
         <v>6</v>
       </c>
-      <c r="H267" s="5"/>
-    </row>
-    <row r="268" spans="8:8">
       <c r="H268" s="5"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>0</v>
-      </c>
-      <c r="B269">
-        <v>15011030</v>
-      </c>
-      <c r="C269" t="s">
-        <v>243</v>
-      </c>
-      <c r="E269" t="s">
-        <v>244</v>
-      </c>
-      <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269">
-        <v>6</v>
-      </c>
+    <row r="269" spans="8:8">
       <c r="H269" s="5"/>
     </row>
     <row r="270" spans="1:8">
@@ -6775,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>15011031</v>
+        <v>15011030</v>
       </c>
       <c r="C270" t="s">
+        <v>244</v>
+      </c>
+      <c r="E270" t="s">
         <v>245</v>
-      </c>
-      <c r="E270" t="s">
-        <v>244</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6796,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>15011032</v>
+        <v>15011031</v>
       </c>
       <c r="C271" t="s">
         <v>246</v>
       </c>
       <c r="E271" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6817,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="B272">
-        <v>15011033</v>
+        <v>15011032</v>
       </c>
       <c r="C272" t="s">
         <v>247</v>
       </c>
       <c r="E272" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6838,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="B273">
-        <v>15011034</v>
+        <v>15011033</v>
       </c>
       <c r="C273" t="s">
         <v>248</v>
       </c>
       <c r="E273" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -6854,7 +6858,25 @@
       </c>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>15011034</v>
+      </c>
+      <c r="C274" t="s">
+        <v>249</v>
+      </c>
+      <c r="E274" t="s">
+        <v>245</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274">
+        <v>6</v>
+      </c>
       <c r="H274" s="5"/>
     </row>
     <row r="275" spans="8:8">
@@ -6863,105 +6885,88 @@
     <row r="276" spans="8:8">
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277">
+    <row r="277" spans="8:8">
+      <c r="H277" s="5"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278">
         <v>15012001</v>
       </c>
-      <c r="C277" t="s">
-        <v>249</v>
-      </c>
-      <c r="E277" t="s">
-        <v>244</v>
-      </c>
-      <c r="F277" t="s">
+      <c r="C278" t="s">
+        <v>250</v>
+      </c>
+      <c r="E278" t="s">
+        <v>245</v>
+      </c>
+      <c r="F278" t="s">
         <v>20</v>
       </c>
-      <c r="G277">
+      <c r="G278">
         <v>6</v>
       </c>
-      <c r="H277" s="5"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>0</v>
-      </c>
-      <c r="B280">
+      <c r="H278" s="5"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281">
         <v>15013001</v>
       </c>
-      <c r="C280" t="s">
-        <v>250</v>
-      </c>
-      <c r="E280" t="s">
-        <v>244</v>
-      </c>
-      <c r="F280" t="s">
+      <c r="C281" t="s">
+        <v>251</v>
+      </c>
+      <c r="E281" t="s">
+        <v>245</v>
+      </c>
+      <c r="F281" t="s">
         <v>20</v>
       </c>
-      <c r="G280">
+      <c r="G281">
         <v>6</v>
       </c>
-      <c r="H280" s="5"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283">
+      <c r="H281" s="5"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284">
         <v>15014001</v>
       </c>
-      <c r="C283" t="s">
-        <v>251</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="C284" t="s">
         <v>252</v>
       </c>
-      <c r="F283" t="s">
+      <c r="E284" t="s">
         <v>253</v>
       </c>
-      <c r="G283">
+      <c r="F284" t="s">
+        <v>254</v>
+      </c>
+      <c r="G284">
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
-      <c r="A286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286">
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287">
         <v>15015001</v>
       </c>
-      <c r="C286" t="s">
-        <v>254</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="C287" t="s">
         <v>255</v>
       </c>
-      <c r="F286" t="s">
+      <c r="E287" t="s">
         <v>256</v>
       </c>
-      <c r="G286">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288">
-        <v>15015100</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="F287" t="s">
         <v>257</v>
       </c>
-      <c r="E288" t="s">
-        <v>255</v>
-      </c>
-      <c r="F288" t="s">
-        <v>256</v>
-      </c>
-      <c r="G288">
+      <c r="G287">
         <v>5</v>
       </c>
     </row>
@@ -6970,18 +6975,38 @@
         <v>0</v>
       </c>
       <c r="B289">
-        <v>15015101</v>
+        <v>15015100</v>
       </c>
       <c r="C289" t="s">
         <v>258</v>
       </c>
       <c r="E289" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F289" t="s">
+        <v>257</v>
+      </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>15015101</v>
+      </c>
+      <c r="C290" t="s">
+        <v>259</v>
+      </c>
+      <c r="E290" t="s">
         <v>256</v>
       </c>
-      <c r="G289">
+      <c r="F290" t="s">
+        <v>257</v>
+      </c>
+      <c r="G290">
         <v>5</v>
       </c>
     </row>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16365" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="10890"/>
+    <workbookView windowWidth="24120" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="263">
   <si>
     <t>#</t>
   </si>
@@ -808,6 +808,15 @@
   </si>
   <si>
     <t>role_002</t>
+  </si>
+  <si>
+    <t>role_003</t>
+  </si>
+  <si>
+    <t>role_004</t>
+  </si>
+  <si>
+    <t>role_005</t>
   </si>
   <si>
     <t>monster_001</t>
@@ -1846,9 +1855,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
@@ -6779,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>15011030</v>
+        <v>15011031</v>
       </c>
       <c r="C270" t="s">
         <v>244</v>
@@ -6800,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>15011031</v>
+        <v>15011032</v>
       </c>
       <c r="C271" t="s">
         <v>246</v>
@@ -6816,12 +6825,12 @@
       </c>
       <c r="H271" s="5"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" customFormat="1" spans="1:8">
       <c r="A272" t="s">
         <v>0</v>
       </c>
       <c r="B272">
-        <v>15011032</v>
+        <v>15011033</v>
       </c>
       <c r="C272" t="s">
         <v>247</v>
@@ -6837,12 +6846,12 @@
       </c>
       <c r="H272" s="5"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" customFormat="1" spans="1:8">
       <c r="A273" t="s">
         <v>0</v>
       </c>
       <c r="B273">
-        <v>15011033</v>
+        <v>15011034</v>
       </c>
       <c r="C273" t="s">
         <v>248</v>
@@ -6858,12 +6867,12 @@
       </c>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" customFormat="1" spans="1:8">
       <c r="A274" t="s">
         <v>0</v>
       </c>
       <c r="B274">
-        <v>15011034</v>
+        <v>15011035</v>
       </c>
       <c r="C274" t="s">
         <v>249</v>
@@ -6885,7 +6894,25 @@
     <row r="276" spans="8:8">
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>15011101</v>
+      </c>
+      <c r="C277" t="s">
+        <v>250</v>
+      </c>
+      <c r="E277" t="s">
+        <v>245</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277">
+        <v>6</v>
+      </c>
       <c r="H277" s="5"/>
     </row>
     <row r="278" spans="1:8">
@@ -6893,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="B278">
-        <v>15012001</v>
+        <v>15011102</v>
       </c>
       <c r="C278" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E278" t="s">
         <v>245</v>
@@ -6909,76 +6936,87 @@
       </c>
       <c r="H278" s="5"/>
     </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281">
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>15011103</v>
+      </c>
+      <c r="C279" t="s">
+        <v>252</v>
+      </c>
+      <c r="E279" t="s">
+        <v>245</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+      <c r="G279">
+        <v>6</v>
+      </c>
+      <c r="H279" s="5"/>
+    </row>
+    <row r="280" spans="8:8">
+      <c r="H280" s="5"/>
+    </row>
+    <row r="281" spans="8:8">
+      <c r="H281" s="5"/>
+    </row>
+    <row r="282" spans="8:8">
+      <c r="H282" s="5"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>15012001</v>
+      </c>
+      <c r="C283" t="s">
+        <v>253</v>
+      </c>
+      <c r="E283" t="s">
+        <v>245</v>
+      </c>
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="G283">
+        <v>6</v>
+      </c>
+      <c r="H283" s="5"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286">
         <v>15013001</v>
       </c>
-      <c r="C281" t="s">
-        <v>251</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="C286" t="s">
+        <v>254</v>
+      </c>
+      <c r="E286" t="s">
         <v>245</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F286" t="s">
         <v>20</v>
       </c>
-      <c r="G281">
+      <c r="G286">
         <v>6</v>
       </c>
-      <c r="H281" s="5"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B284">
-        <v>15014001</v>
-      </c>
-      <c r="C284" t="s">
-        <v>252</v>
-      </c>
-      <c r="E284" t="s">
-        <v>253</v>
-      </c>
-      <c r="F284" t="s">
-        <v>254</v>
-      </c>
-      <c r="G284">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287">
-        <v>15015001</v>
-      </c>
-      <c r="C287" t="s">
-        <v>255</v>
-      </c>
-      <c r="E287" t="s">
-        <v>256</v>
-      </c>
-      <c r="F287" t="s">
-        <v>257</v>
-      </c>
-      <c r="G287">
-        <v>5</v>
-      </c>
+      <c r="H286" s="5"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>0</v>
       </c>
       <c r="B289">
-        <v>15015100</v>
+        <v>15014001</v>
       </c>
       <c r="C289" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E289" t="s">
         <v>256</v>
@@ -6987,26 +7025,66 @@
         <v>257</v>
       </c>
       <c r="G289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>15015001</v>
+      </c>
+      <c r="C292" t="s">
+        <v>258</v>
+      </c>
+      <c r="E292" t="s">
+        <v>259</v>
+      </c>
+      <c r="F292" t="s">
+        <v>260</v>
+      </c>
+      <c r="G292">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290">
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>15015100</v>
+      </c>
+      <c r="C294" t="s">
+        <v>261</v>
+      </c>
+      <c r="E294" t="s">
+        <v>259</v>
+      </c>
+      <c r="F294" t="s">
+        <v>260</v>
+      </c>
+      <c r="G294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295">
         <v>15015101</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C295" t="s">
+        <v>262</v>
+      </c>
+      <c r="E295" t="s">
         <v>259</v>
       </c>
-      <c r="E290" t="s">
-        <v>256</v>
-      </c>
-      <c r="F290" t="s">
-        <v>257</v>
-      </c>
-      <c r="G290">
+      <c r="F295" t="s">
+        <v>260</v>
+      </c>
+      <c r="G295">
         <v>5</v>
       </c>
     </row>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24120" windowHeight="10890"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="265">
   <si>
     <t>#</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>monster_boss_101</t>
+  </si>
+  <si>
+    <t>monster_201</t>
+  </si>
+  <si>
+    <t>monster_202</t>
   </si>
   <si>
     <t>monster1_battle</t>
@@ -1021,12 +1027,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1857,8 +1863,8 @@
   <sheetPr/>
   <dimension ref="A1:H295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6957,10 +6963,46 @@
       </c>
       <c r="H279" s="5"/>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" customFormat="1" spans="1:8">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>15011104</v>
+      </c>
+      <c r="C280" t="s">
+        <v>253</v>
+      </c>
+      <c r="E280" t="s">
+        <v>245</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="G280">
+        <v>6</v>
+      </c>
       <c r="H280" s="5"/>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" customFormat="1" spans="1:8">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>15011105</v>
+      </c>
+      <c r="C281" t="s">
+        <v>254</v>
+      </c>
+      <c r="E281" t="s">
+        <v>245</v>
+      </c>
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+      <c r="G281">
+        <v>6</v>
+      </c>
       <c r="H281" s="5"/>
     </row>
     <row r="282" spans="8:8">
@@ -6974,7 +7016,7 @@
         <v>15012001</v>
       </c>
       <c r="C283" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E283" t="s">
         <v>245</v>
@@ -6995,7 +7037,7 @@
         <v>15013001</v>
       </c>
       <c r="C286" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E286" t="s">
         <v>245</v>
@@ -7016,13 +7058,13 @@
         <v>15014001</v>
       </c>
       <c r="C289" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E289" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F289" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G289">
         <v>7</v>
@@ -7036,13 +7078,13 @@
         <v>15015001</v>
       </c>
       <c r="C292" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E292" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F292" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G292">
         <v>5</v>
@@ -7056,13 +7098,13 @@
         <v>15015100</v>
       </c>
       <c r="C294" t="s">
+        <v>263</v>
+      </c>
+      <c r="E294" t="s">
         <v>261</v>
       </c>
-      <c r="E294" t="s">
-        <v>259</v>
-      </c>
       <c r="F294" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G294">
         <v>5</v>
@@ -7076,13 +7118,13 @@
         <v>15015101</v>
       </c>
       <c r="C295" t="s">
+        <v>264</v>
+      </c>
+      <c r="E295" t="s">
+        <v>261</v>
+      </c>
+      <c r="F295" t="s">
         <v>262</v>
-      </c>
-      <c r="E295" t="s">
-        <v>259</v>
-      </c>
-      <c r="F295" t="s">
-        <v>260</v>
       </c>
       <c r="G295">
         <v>5</v>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1027,12 +1027,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="22665" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="266">
   <si>
     <t>#</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>eft_skill_track_002</t>
+  </si>
+  <si>
+    <t>eft_skill_track_003</t>
   </si>
   <si>
     <t>battle_scene_001</t>
@@ -1863,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:H295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6550,12 +6553,26 @@
       </c>
       <c r="H249" s="5"/>
     </row>
-    <row r="250" ht="17" customHeight="1" spans="3:8">
-      <c r="C250" s="2"/>
+    <row r="250" ht="17" customHeight="1" spans="1:8">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>15008203</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
+      <c r="E250" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" s="2">
+        <v>4</v>
+      </c>
       <c r="H250" s="5"/>
     </row>
     <row r="251" ht="17" customHeight="1" spans="3:8">
@@ -6614,11 +6631,11 @@
         <v>15010001</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>20</v>
@@ -6636,11 +6653,11 @@
         <v>15010002</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>20</v>
@@ -6658,11 +6675,11 @@
         <v>15010003</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>20</v>
@@ -6689,10 +6706,10 @@
         <v>15011001</v>
       </c>
       <c r="C263" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E263" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
@@ -6710,10 +6727,10 @@
         <v>15011002</v>
       </c>
       <c r="C264" t="s">
+        <v>241</v>
+      </c>
+      <c r="E264" t="s">
         <v>240</v>
-      </c>
-      <c r="E264" t="s">
-        <v>239</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6731,10 +6748,10 @@
         <v>15011003</v>
       </c>
       <c r="C265" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E265" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6752,10 +6769,10 @@
         <v>15011004</v>
       </c>
       <c r="C266" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E266" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
@@ -6773,10 +6790,10 @@
         <v>15011021</v>
       </c>
       <c r="C268" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E268" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F268" t="s">
         <v>20</v>
@@ -6797,10 +6814,10 @@
         <v>15011031</v>
       </c>
       <c r="C270" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E270" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6818,10 +6835,10 @@
         <v>15011032</v>
       </c>
       <c r="C271" t="s">
+        <v>247</v>
+      </c>
+      <c r="E271" t="s">
         <v>246</v>
-      </c>
-      <c r="E271" t="s">
-        <v>245</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6839,10 +6856,10 @@
         <v>15011033</v>
       </c>
       <c r="C272" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E272" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6860,10 +6877,10 @@
         <v>15011034</v>
       </c>
       <c r="C273" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E273" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -6881,10 +6898,10 @@
         <v>15011035</v>
       </c>
       <c r="C274" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E274" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F274" t="s">
         <v>20</v>
@@ -6908,10 +6925,10 @@
         <v>15011101</v>
       </c>
       <c r="C277" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E277" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -6929,10 +6946,10 @@
         <v>15011102</v>
       </c>
       <c r="C278" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E278" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F278" t="s">
         <v>20</v>
@@ -6950,10 +6967,10 @@
         <v>15011103</v>
       </c>
       <c r="C279" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E279" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F279" t="s">
         <v>20</v>
@@ -6971,10 +6988,10 @@
         <v>15011104</v>
       </c>
       <c r="C280" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E280" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -6992,10 +7009,10 @@
         <v>15011105</v>
       </c>
       <c r="C281" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E281" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F281" t="s">
         <v>20</v>
@@ -7016,10 +7033,10 @@
         <v>15012001</v>
       </c>
       <c r="C283" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E283" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F283" t="s">
         <v>20</v>
@@ -7037,10 +7054,10 @@
         <v>15013001</v>
       </c>
       <c r="C286" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E286" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F286" t="s">
         <v>20</v>
@@ -7058,13 +7075,13 @@
         <v>15014001</v>
       </c>
       <c r="C289" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E289" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F289" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G289">
         <v>7</v>
@@ -7078,13 +7095,13 @@
         <v>15015001</v>
       </c>
       <c r="C292" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E292" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F292" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G292">
         <v>5</v>
@@ -7098,13 +7115,13 @@
         <v>15015100</v>
       </c>
       <c r="C294" t="s">
+        <v>264</v>
+      </c>
+      <c r="E294" t="s">
+        <v>262</v>
+      </c>
+      <c r="F294" t="s">
         <v>263</v>
-      </c>
-      <c r="E294" t="s">
-        <v>261</v>
-      </c>
-      <c r="F294" t="s">
-        <v>262</v>
       </c>
       <c r="G294">
         <v>5</v>
@@ -7118,13 +7135,13 @@
         <v>15015101</v>
       </c>
       <c r="C295" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E295" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F295" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G295">
         <v>5</v>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="10095"/>
+    <workbookView windowWidth="15945" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="267">
   <si>
     <t>#</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>role_005</t>
+  </si>
+  <si>
+    <t>role_006</t>
   </si>
   <si>
     <t>monster_001</t>
@@ -1030,12 +1033,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1864,10 +1867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6911,31 +6914,31 @@
       </c>
       <c r="H274" s="5"/>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" customFormat="1" spans="1:8">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>15011036</v>
+      </c>
+      <c r="C275" t="s">
+        <v>251</v>
+      </c>
+      <c r="E275" t="s">
+        <v>246</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+      <c r="G275">
+        <v>6</v>
+      </c>
       <c r="H275" s="5"/>
     </row>
     <row r="276" spans="8:8">
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277">
-        <v>15011101</v>
-      </c>
-      <c r="C277" t="s">
-        <v>251</v>
-      </c>
-      <c r="E277" t="s">
-        <v>246</v>
-      </c>
-      <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277">
-        <v>6</v>
-      </c>
+    <row r="277" spans="8:8">
       <c r="H277" s="5"/>
     </row>
     <row r="278" spans="1:8">
@@ -6943,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="B278">
-        <v>15011102</v>
+        <v>15011101</v>
       </c>
       <c r="C278" t="s">
         <v>252</v>
@@ -6964,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="B279">
-        <v>15011103</v>
+        <v>15011102</v>
       </c>
       <c r="C279" t="s">
         <v>253</v>
@@ -6980,12 +6983,12 @@
       </c>
       <c r="H279" s="5"/>
     </row>
-    <row r="280" customFormat="1" spans="1:8">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>0</v>
       </c>
       <c r="B280">
-        <v>15011104</v>
+        <v>15011103</v>
       </c>
       <c r="C280" t="s">
         <v>254</v>
@@ -7006,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>15011105</v>
+        <v>15011104</v>
       </c>
       <c r="C281" t="s">
         <v>255</v>
@@ -7022,108 +7025,109 @@
       </c>
       <c r="H281" s="5"/>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" customFormat="1" spans="1:8">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>15011105</v>
+      </c>
+      <c r="C282" t="s">
+        <v>256</v>
+      </c>
+      <c r="E282" t="s">
+        <v>246</v>
+      </c>
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282">
+        <v>6</v>
+      </c>
       <c r="H282" s="5"/>
     </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283">
+    <row r="283" spans="8:8">
+      <c r="H283" s="5"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284">
         <v>15012001</v>
       </c>
-      <c r="C283" t="s">
-        <v>256</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="C284" t="s">
+        <v>257</v>
+      </c>
+      <c r="E284" t="s">
         <v>246</v>
       </c>
-      <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283">
+      <c r="F284" t="s">
+        <v>20</v>
+      </c>
+      <c r="G284">
         <v>6</v>
       </c>
-      <c r="H283" s="5"/>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286">
+      <c r="H284" s="5"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287">
         <v>15013001</v>
       </c>
-      <c r="C286" t="s">
-        <v>257</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="C287" t="s">
+        <v>258</v>
+      </c>
+      <c r="E287" t="s">
         <v>246</v>
       </c>
-      <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286">
+      <c r="F287" t="s">
+        <v>20</v>
+      </c>
+      <c r="G287">
         <v>6</v>
       </c>
-      <c r="H286" s="5"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" t="s">
-        <v>0</v>
-      </c>
-      <c r="B289">
+      <c r="H287" s="5"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290">
         <v>15014001</v>
       </c>
-      <c r="C289" t="s">
-        <v>258</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="C290" t="s">
         <v>259</v>
       </c>
-      <c r="F289" t="s">
+      <c r="E290" t="s">
         <v>260</v>
       </c>
-      <c r="G289">
+      <c r="F290" t="s">
+        <v>261</v>
+      </c>
+      <c r="G290">
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
-      <c r="A292" t="s">
-        <v>0</v>
-      </c>
-      <c r="B292">
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293">
         <v>15015001</v>
       </c>
-      <c r="C292" t="s">
-        <v>261</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="C293" t="s">
         <v>262</v>
       </c>
-      <c r="F292" t="s">
+      <c r="E293" t="s">
         <v>263</v>
       </c>
-      <c r="G292">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" t="s">
-        <v>0</v>
-      </c>
-      <c r="B294">
-        <v>15015100</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="F293" t="s">
         <v>264</v>
       </c>
-      <c r="E294" t="s">
-        <v>262</v>
-      </c>
-      <c r="F294" t="s">
-        <v>263</v>
-      </c>
-      <c r="G294">
+      <c r="G293">
         <v>5</v>
       </c>
     </row>
@@ -7132,18 +7136,38 @@
         <v>0</v>
       </c>
       <c r="B295">
-        <v>15015101</v>
+        <v>15015100</v>
       </c>
       <c r="C295" t="s">
         <v>265</v>
       </c>
       <c r="E295" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F295" t="s">
+        <v>264</v>
+      </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>15015101</v>
+      </c>
+      <c r="C296" t="s">
+        <v>266</v>
+      </c>
+      <c r="E296" t="s">
         <v>263</v>
       </c>
-      <c r="G295">
+      <c r="F296" t="s">
+        <v>264</v>
+      </c>
+      <c r="G296">
         <v>5</v>
       </c>
     </row>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="11430"/>
+    <workbookView windowWidth="22590" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="269">
   <si>
     <t>#</t>
   </si>
@@ -823,6 +823,12 @@
   </si>
   <si>
     <t>role_006</t>
+  </si>
+  <si>
+    <t>role_007</t>
+  </si>
+  <si>
+    <t>role_008</t>
   </si>
   <si>
     <t>monster_001</t>
@@ -1033,12 +1039,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1867,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6935,118 +6941,82 @@
       </c>
       <c r="H275" s="5"/>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" customFormat="1" spans="1:8">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>15011037</v>
+      </c>
+      <c r="C276" t="s">
+        <v>252</v>
+      </c>
+      <c r="E276" t="s">
+        <v>246</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+      <c r="G276">
+        <v>6</v>
+      </c>
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" customFormat="1" spans="1:8">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>15011038</v>
+      </c>
+      <c r="C277" t="s">
+        <v>253</v>
+      </c>
+      <c r="E277" t="s">
+        <v>246</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277">
+        <v>6</v>
+      </c>
       <c r="H277" s="5"/>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278">
+    <row r="278" spans="8:8">
+      <c r="H278" s="5"/>
+    </row>
+    <row r="279" spans="8:8">
+      <c r="H279" s="5"/>
+    </row>
+    <row r="280" spans="8:8">
+      <c r="H280" s="5"/>
+    </row>
+    <row r="281" spans="8:8">
+      <c r="H281" s="5"/>
+    </row>
+    <row r="282" spans="8:8">
+      <c r="H282" s="5"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283">
         <v>15011101</v>
       </c>
-      <c r="C278" t="s">
-        <v>252</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="C283" t="s">
+        <v>254</v>
+      </c>
+      <c r="E283" t="s">
         <v>246</v>
       </c>
-      <c r="F278" t="s">
-        <v>20</v>
-      </c>
-      <c r="G278">
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="G283">
         <v>6</v>
       </c>
-      <c r="H278" s="5"/>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279">
-        <v>15011102</v>
-      </c>
-      <c r="C279" t="s">
-        <v>253</v>
-      </c>
-      <c r="E279" t="s">
-        <v>246</v>
-      </c>
-      <c r="F279" t="s">
-        <v>20</v>
-      </c>
-      <c r="G279">
-        <v>6</v>
-      </c>
-      <c r="H279" s="5"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>0</v>
-      </c>
-      <c r="B280">
-        <v>15011103</v>
-      </c>
-      <c r="C280" t="s">
-        <v>254</v>
-      </c>
-      <c r="E280" t="s">
-        <v>246</v>
-      </c>
-      <c r="F280" t="s">
-        <v>20</v>
-      </c>
-      <c r="G280">
-        <v>6</v>
-      </c>
-      <c r="H280" s="5"/>
-    </row>
-    <row r="281" customFormat="1" spans="1:8">
-      <c r="A281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281">
-        <v>15011104</v>
-      </c>
-      <c r="C281" t="s">
-        <v>255</v>
-      </c>
-      <c r="E281" t="s">
-        <v>246</v>
-      </c>
-      <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="G281">
-        <v>6</v>
-      </c>
-      <c r="H281" s="5"/>
-    </row>
-    <row r="282" customFormat="1" spans="1:8">
-      <c r="A282" t="s">
-        <v>0</v>
-      </c>
-      <c r="B282">
-        <v>15011105</v>
-      </c>
-      <c r="C282" t="s">
-        <v>256</v>
-      </c>
-      <c r="E282" t="s">
-        <v>246</v>
-      </c>
-      <c r="F282" t="s">
-        <v>20</v>
-      </c>
-      <c r="G282">
-        <v>6</v>
-      </c>
-      <c r="H282" s="5"/>
-    </row>
-    <row r="283" spans="8:8">
       <c r="H283" s="5"/>
     </row>
     <row r="284" spans="1:8">
@@ -7054,10 +7024,10 @@
         <v>0</v>
       </c>
       <c r="B284">
-        <v>15012001</v>
+        <v>15011102</v>
       </c>
       <c r="C284" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E284" t="s">
         <v>246</v>
@@ -7070,12 +7040,54 @@
       </c>
       <c r="H284" s="5"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>15011103</v>
+      </c>
+      <c r="C285" t="s">
+        <v>256</v>
+      </c>
+      <c r="E285" t="s">
+        <v>246</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+      <c r="G285">
+        <v>6</v>
+      </c>
+      <c r="H285" s="5"/>
+    </row>
+    <row r="286" customFormat="1" spans="1:8">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>15011104</v>
+      </c>
+      <c r="C286" t="s">
+        <v>257</v>
+      </c>
+      <c r="E286" t="s">
+        <v>246</v>
+      </c>
+      <c r="F286" t="s">
+        <v>20</v>
+      </c>
+      <c r="G286">
+        <v>6</v>
+      </c>
+      <c r="H286" s="5"/>
+    </row>
+    <row r="287" customFormat="1" spans="1:8">
       <c r="A287" t="s">
         <v>0</v>
       </c>
       <c r="B287">
-        <v>15013001</v>
+        <v>15011105</v>
       </c>
       <c r="C287" t="s">
         <v>258</v>
@@ -7091,83 +7103,128 @@
       </c>
       <c r="H287" s="5"/>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290">
-        <v>15014001</v>
-      </c>
-      <c r="C290" t="s">
+    <row r="288" spans="8:8">
+      <c r="H288" s="5"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>15012001</v>
+      </c>
+      <c r="C289" t="s">
         <v>259</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E289" t="s">
+        <v>246</v>
+      </c>
+      <c r="F289" t="s">
+        <v>20</v>
+      </c>
+      <c r="G289">
+        <v>6</v>
+      </c>
+      <c r="H289" s="5"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>15013001</v>
+      </c>
+      <c r="C292" t="s">
         <v>260</v>
       </c>
-      <c r="F290" t="s">
-        <v>261</v>
-      </c>
-      <c r="G290">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" t="s">
-        <v>0</v>
-      </c>
-      <c r="B293">
-        <v>15015001</v>
-      </c>
-      <c r="C293" t="s">
-        <v>262</v>
-      </c>
-      <c r="E293" t="s">
-        <v>263</v>
-      </c>
-      <c r="F293" t="s">
-        <v>264</v>
-      </c>
-      <c r="G293">
-        <v>5</v>
-      </c>
+      <c r="E292" t="s">
+        <v>246</v>
+      </c>
+      <c r="F292" t="s">
+        <v>20</v>
+      </c>
+      <c r="G292">
+        <v>6</v>
+      </c>
+      <c r="H292" s="5"/>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>0</v>
       </c>
       <c r="B295">
+        <v>15014001</v>
+      </c>
+      <c r="C295" t="s">
+        <v>261</v>
+      </c>
+      <c r="E295" t="s">
+        <v>262</v>
+      </c>
+      <c r="F295" t="s">
+        <v>263</v>
+      </c>
+      <c r="G295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>15015001</v>
+      </c>
+      <c r="C298" t="s">
+        <v>264</v>
+      </c>
+      <c r="E298" t="s">
+        <v>265</v>
+      </c>
+      <c r="F298" t="s">
+        <v>266</v>
+      </c>
+      <c r="G298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300">
         <v>15015100</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C300" t="s">
+        <v>267</v>
+      </c>
+      <c r="E300" t="s">
         <v>265</v>
       </c>
-      <c r="E295" t="s">
-        <v>263</v>
-      </c>
-      <c r="F295" t="s">
-        <v>264</v>
-      </c>
-      <c r="G295">
+      <c r="F300" t="s">
+        <v>266</v>
+      </c>
+      <c r="G300">
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
-      <c r="A296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B296">
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301">
         <v>15015101</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C301" t="s">
+        <v>268</v>
+      </c>
+      <c r="E301" t="s">
+        <v>265</v>
+      </c>
+      <c r="F301" t="s">
         <v>266</v>
       </c>
-      <c r="E296" t="s">
-        <v>263</v>
-      </c>
-      <c r="F296" t="s">
-        <v>264</v>
-      </c>
-      <c r="G296">
+      <c r="G301">
         <v>5</v>
       </c>
     </row>

--- a/data_config/ResourceConfig.xlsx
+++ b/data_config/ResourceConfig.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="11700"/>
+    <workbookView windowWidth="23460" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -879,7 +866,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1039,12 +1026,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1875,11 +1862,11 @@
   <sheetPr/>
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="38.875" customWidth="1"/>
@@ -7245,7 +7232,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7262,7 +7249,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
